--- a/outputs-HGR-r202/train-g__CAG-81_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__CAG-81_split_pruned.xlsx
@@ -7,6 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
+    <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
+    <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -14,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="351">
   <si>
     <t>Row</t>
   </si>
@@ -245,6 +249,828 @@
   </si>
   <si>
     <t>actual</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_0.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_11.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_19.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_41.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_45.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_46.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_51.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_0.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_11.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_20.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_26.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_0.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_10.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_21.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_3.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_30.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_31.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_32.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_37.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_4.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_50.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_6.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_95.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_15.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_17.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_21.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_22.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_31.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_32.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_19.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_24.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_7.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_8.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_11.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_12.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_17.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_18.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_19.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_22.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_25.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_26.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_27.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_33.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_35.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_41.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_43.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_45.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_46.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_48.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_49.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_91.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_14.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_18.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_23.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_27.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_28.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_33.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_35.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_37.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_39.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_4.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_40.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_43.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_47.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_48.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_5.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_52.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_58.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_59.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_8.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_9.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_10.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_12.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_13.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_18.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_21.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_5.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_16.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_20.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_23.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_24.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_28.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_29.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_38.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_40.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_92.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_16.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_2.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_24.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_25.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_3.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_34.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_36.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_38.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_42.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_44.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_49.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_53.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_54.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_56.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_57.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_60.fasta</t>
+  </si>
+  <si>
+    <t>label_18048_2_85_7.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_1.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_16.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_2.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_22.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_23.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_92_9.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_13.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_34.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_36.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_39.fasta</t>
+  </si>
+  <si>
+    <t>label_21673_4_71_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS129_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS341_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1992_94.fasta</t>
   </si>
 </sst>
 </file>
@@ -265,7 +1091,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -275,14 +1101,30 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2309,4 +3151,8146 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I69"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="true"/>
+    <col min="2" max="2" width="21.85546875" customWidth="true"/>
+    <col min="3" max="3" width="21.85546875" customWidth="true"/>
+    <col min="4" max="4" width="21.85546875" customWidth="true"/>
+    <col min="5" max="5" width="21.85546875" customWidth="true"/>
+    <col min="6" max="6" width="21.85546875" customWidth="true"/>
+    <col min="7" max="7" width="21.85546875" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2">
+        <v>0.95810961920202331</v>
+      </c>
+      <c r="C2">
+        <v>0.019707578515617705</v>
+      </c>
+      <c r="D2">
+        <v>0.020380549914741586</v>
+      </c>
+      <c r="E2">
+        <v>0.001675117814635676</v>
+      </c>
+      <c r="F2">
+        <v>0.00010725818541050345</v>
+      </c>
+      <c r="G2">
+        <v>1.9876367571170879e-05</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <v>0.93380012082734454</v>
+      </c>
+      <c r="C3">
+        <v>0.020919867313564142</v>
+      </c>
+      <c r="D3">
+        <v>0.034876886260297675</v>
+      </c>
+      <c r="E3">
+        <v>0.00081313095381503587</v>
+      </c>
+      <c r="F3">
+        <v>0.0095862473850271118</v>
+      </c>
+      <c r="G3">
+        <v>3.7472599514691917e-06</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>0.9519764356186694</v>
+      </c>
+      <c r="C4">
+        <v>0.022098013632863706</v>
+      </c>
+      <c r="D4">
+        <v>0.014325667521059566</v>
+      </c>
+      <c r="E4">
+        <v>0.011411358818859683</v>
+      </c>
+      <c r="F4">
+        <v>0.00013303116057499707</v>
+      </c>
+      <c r="G4">
+        <v>5.5493247972579521e-05</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>0.73412598911067783</v>
+      </c>
+      <c r="C5">
+        <v>0.090542833742859249</v>
+      </c>
+      <c r="D5">
+        <v>0.13746673368332338</v>
+      </c>
+      <c r="E5">
+        <v>0.022296415953207274</v>
+      </c>
+      <c r="F5">
+        <v>0.0020941670828500481</v>
+      </c>
+      <c r="G5">
+        <v>0.013473860427082327</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>0.10888495261417212</v>
+      </c>
+      <c r="C6">
+        <v>0.24145221975676825</v>
+      </c>
+      <c r="D6">
+        <v>0.53279370206636856</v>
+      </c>
+      <c r="E6">
+        <v>0.056755008014667034</v>
+      </c>
+      <c r="F6">
+        <v>0.022238920464489054</v>
+      </c>
+      <c r="G6">
+        <v>0.037875197083535032</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7">
+        <v>0.66149041492106131</v>
+      </c>
+      <c r="C7">
+        <v>0.15092487422956158</v>
+      </c>
+      <c r="D7">
+        <v>0.12363628256692788</v>
+      </c>
+      <c r="E7">
+        <v>0.054596612732466659</v>
+      </c>
+      <c r="F7">
+        <v>0.00037259868415191635</v>
+      </c>
+      <c r="G7">
+        <v>0.0089792168658305218</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>0.52654751274168665</v>
+      </c>
+      <c r="C8">
+        <v>0.21903295019059368</v>
+      </c>
+      <c r="D8">
+        <v>0.13514694403950908</v>
+      </c>
+      <c r="E8">
+        <v>0.10073423687549478</v>
+      </c>
+      <c r="F8">
+        <v>0.0017554276232972235</v>
+      </c>
+      <c r="G8">
+        <v>0.016782928529418737</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9">
+        <v>0.1959779527759444</v>
+      </c>
+      <c r="C9">
+        <v>0.27111035884512907</v>
+      </c>
+      <c r="D9">
+        <v>0.35056754938126167</v>
+      </c>
+      <c r="E9">
+        <v>0.16767066297939695</v>
+      </c>
+      <c r="F9">
+        <v>0.014649543626890485</v>
+      </c>
+      <c r="G9">
+        <v>2.3932391377375567e-05</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>0.022025442998248001</v>
+      </c>
+      <c r="C10">
+        <v>0.26814892281531844</v>
+      </c>
+      <c r="D10">
+        <v>0.39214583695434924</v>
+      </c>
+      <c r="E10">
+        <v>0.31456472575103767</v>
+      </c>
+      <c r="F10">
+        <v>0.0030303973208205669</v>
+      </c>
+      <c r="G10">
+        <v>8.4674160226078847e-05</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11">
+        <v>0.34572147785828655</v>
+      </c>
+      <c r="C11">
+        <v>0.14419923095690385</v>
+      </c>
+      <c r="D11">
+        <v>0.49865220877904387</v>
+      </c>
+      <c r="E11">
+        <v>0.0035302796170787547</v>
+      </c>
+      <c r="F11">
+        <v>0.0078910827043023445</v>
+      </c>
+      <c r="G11">
+        <v>5.7200843846917911e-06</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12">
+        <v>0.48865879175160959</v>
+      </c>
+      <c r="C12">
+        <v>0.26262692905308993</v>
+      </c>
+      <c r="D12">
+        <v>0.028949993285148856</v>
+      </c>
+      <c r="E12">
+        <v>5.0658177086242462e-11</v>
+      </c>
+      <c r="F12">
+        <v>0.057381829518578648</v>
+      </c>
+      <c r="G12">
+        <v>0.16238245634091489</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13">
+        <v>0.087917880115106012</v>
+      </c>
+      <c r="C13">
+        <v>0.30912706794317568</v>
+      </c>
+      <c r="D13">
+        <v>0.44983203250908932</v>
+      </c>
+      <c r="E13">
+        <v>0.14767157482104534</v>
+      </c>
+      <c r="F13">
+        <v>0.0054299568455741182</v>
+      </c>
+      <c r="G13">
+        <v>2.1487766009814413e-05</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14">
+        <v>0.084939691709466428</v>
+      </c>
+      <c r="C14">
+        <v>0.26124858876716367</v>
+      </c>
+      <c r="D14">
+        <v>0.56733674591761307</v>
+      </c>
+      <c r="E14">
+        <v>0.0765415183412093</v>
+      </c>
+      <c r="F14">
+        <v>0.0099231412353013807</v>
+      </c>
+      <c r="G14">
+        <v>1.0314029246086323e-05</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>0.10543256365941658</v>
+      </c>
+      <c r="C15">
+        <v>0.23892686506185232</v>
+      </c>
+      <c r="D15">
+        <v>0.43812869252061815</v>
+      </c>
+      <c r="E15">
+        <v>0.20041242660777245</v>
+      </c>
+      <c r="F15">
+        <v>0.01693623860866101</v>
+      </c>
+      <c r="G15">
+        <v>0.0001632135416795966</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16">
+        <v>0.053900591094224404</v>
+      </c>
+      <c r="C16">
+        <v>0.26159259650034367</v>
+      </c>
+      <c r="D16">
+        <v>0.47597491724183111</v>
+      </c>
+      <c r="E16">
+        <v>0.20301270815663472</v>
+      </c>
+      <c r="F16">
+        <v>0.0055025929438491548</v>
+      </c>
+      <c r="G16">
+        <v>1.6594063116949906e-05</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17">
+        <v>0.099276777833936153</v>
+      </c>
+      <c r="C17">
+        <v>0.22913123635816046</v>
+      </c>
+      <c r="D17">
+        <v>0.54517782105365431</v>
+      </c>
+      <c r="E17">
+        <v>0.11032717928180805</v>
+      </c>
+      <c r="F17">
+        <v>0.012254877277632595</v>
+      </c>
+      <c r="G17">
+        <v>0.003832108194808369</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18">
+        <v>0.17141339207437165</v>
+      </c>
+      <c r="C18">
+        <v>0.17214937856478918</v>
+      </c>
+      <c r="D18">
+        <v>0.47334943724123096</v>
+      </c>
+      <c r="E18">
+        <v>0.14125913572854959</v>
+      </c>
+      <c r="F18">
+        <v>0.041433644826363254</v>
+      </c>
+      <c r="G18">
+        <v>0.00039501156469530052</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <v>0.092265367556649006</v>
+      </c>
+      <c r="C19">
+        <v>0.27952676638559432</v>
+      </c>
+      <c r="D19">
+        <v>0.41661620868196886</v>
+      </c>
+      <c r="E19">
+        <v>0.16336602401967154</v>
+      </c>
+      <c r="F19">
+        <v>0.020130815794627905</v>
+      </c>
+      <c r="G19">
+        <v>0.028094817561488426</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20">
+        <v>0.20828774301785261</v>
+      </c>
+      <c r="C20">
+        <v>0.21889352193703571</v>
+      </c>
+      <c r="D20">
+        <v>0.41900920738389469</v>
+      </c>
+      <c r="E20">
+        <v>0.12531661048717618</v>
+      </c>
+      <c r="F20">
+        <v>0.0050680737209357896</v>
+      </c>
+      <c r="G20">
+        <v>0.023424843453105276</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21">
+        <v>0.058933119173475268</v>
+      </c>
+      <c r="C21">
+        <v>0.26597845426120342</v>
+      </c>
+      <c r="D21">
+        <v>0.52114340139457227</v>
+      </c>
+      <c r="E21">
+        <v>0.13140791976051966</v>
+      </c>
+      <c r="F21">
+        <v>0.022518186776134624</v>
+      </c>
+      <c r="G21">
+        <v>1.8918634094523166e-05</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22">
+        <v>0.64655481827061478</v>
+      </c>
+      <c r="C22">
+        <v>0.12878134113308617</v>
+      </c>
+      <c r="D22">
+        <v>2.8716669984513324e-05</v>
+      </c>
+      <c r="E22">
+        <v>2.2940279306049476e-14</v>
+      </c>
+      <c r="F22">
+        <v>0.22463507263057131</v>
+      </c>
+      <c r="G22">
+        <v>5.129572031877704e-08</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23">
+        <v>0.38050351492079365</v>
+      </c>
+      <c r="C23">
+        <v>0.25122370485442086</v>
+      </c>
+      <c r="D23">
+        <v>0.31562264227538461</v>
+      </c>
+      <c r="E23">
+        <v>0.04599906100890884</v>
+      </c>
+      <c r="F23">
+        <v>0.0065132507168982369</v>
+      </c>
+      <c r="G23">
+        <v>0.00013782622359390619</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24">
+        <v>0.033697515502722319</v>
+      </c>
+      <c r="C24">
+        <v>0.31224090929520348</v>
+      </c>
+      <c r="D24">
+        <v>0.44705850011229331</v>
+      </c>
+      <c r="E24">
+        <v>0.19785026362188127</v>
+      </c>
+      <c r="F24">
+        <v>0.0091152786157317062</v>
+      </c>
+      <c r="G24">
+        <v>3.753285216796995e-05</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25">
+        <v>0.0062847116900518994</v>
+      </c>
+      <c r="C25">
+        <v>0.045115022429404912</v>
+      </c>
+      <c r="D25">
+        <v>0.055434641179665581</v>
+      </c>
+      <c r="E25">
+        <v>0.89247355873428058</v>
+      </c>
+      <c r="F25">
+        <v>0.00060750628788207978</v>
+      </c>
+      <c r="G25">
+        <v>8.4559678715015615e-05</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26">
+        <v>0.025692022541154314</v>
+      </c>
+      <c r="C26">
+        <v>0.062065846659604254</v>
+      </c>
+      <c r="D26">
+        <v>0.12879932420708676</v>
+      </c>
+      <c r="E26">
+        <v>0.78152146494518071</v>
+      </c>
+      <c r="F26">
+        <v>0.0019009670169124733</v>
+      </c>
+      <c r="G26">
+        <v>2.037463006148697e-05</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27">
+        <v>0.013818663941987084</v>
+      </c>
+      <c r="C27">
+        <v>0.11862880470514107</v>
+      </c>
+      <c r="D27">
+        <v>0.28236212046778508</v>
+      </c>
+      <c r="E27">
+        <v>0.58154361579575331</v>
+      </c>
+      <c r="F27">
+        <v>0.002731646369247233</v>
+      </c>
+      <c r="G27">
+        <v>0.00091514872008622477</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28">
+        <v>0.015581700451306428</v>
+      </c>
+      <c r="C28">
+        <v>0.088479549325795534</v>
+      </c>
+      <c r="D28">
+        <v>0.18378346753003008</v>
+      </c>
+      <c r="E28">
+        <v>0.70872492361412731</v>
+      </c>
+      <c r="F28">
+        <v>0.0022840085262376122</v>
+      </c>
+      <c r="G28">
+        <v>0.0011463505525030808</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29">
+        <v>0.0097316241802922789</v>
+      </c>
+      <c r="C29">
+        <v>0.095829191218130341</v>
+      </c>
+      <c r="D29">
+        <v>0.09442985969014242</v>
+      </c>
+      <c r="E29">
+        <v>0.79734064620689538</v>
+      </c>
+      <c r="F29">
+        <v>0.00084226264644517027</v>
+      </c>
+      <c r="G29">
+        <v>0.0018264160580943264</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30">
+        <v>0.086716184922097955</v>
+      </c>
+      <c r="C30">
+        <v>0.22323186323065755</v>
+      </c>
+      <c r="D30">
+        <v>0.37210752116685897</v>
+      </c>
+      <c r="E30">
+        <v>0.25677514978605931</v>
+      </c>
+      <c r="F30">
+        <v>0.0080854350818824229</v>
+      </c>
+      <c r="G30">
+        <v>0.053083845812443652</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31">
+        <v>0.2248397705413353</v>
+      </c>
+      <c r="C31">
+        <v>0.31871788286763875</v>
+      </c>
+      <c r="D31">
+        <v>0.20944939740286317</v>
+      </c>
+      <c r="E31">
+        <v>0.0062169887195246947</v>
+      </c>
+      <c r="F31">
+        <v>0.15117753411286408</v>
+      </c>
+      <c r="G31">
+        <v>0.089598426355773933</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32">
+        <v>0.39745040137029419</v>
+      </c>
+      <c r="C32">
+        <v>0.18756275940779366</v>
+      </c>
+      <c r="D32">
+        <v>0.00032826436848150869</v>
+      </c>
+      <c r="E32">
+        <v>4.9860489539168831e-07</v>
+      </c>
+      <c r="F32">
+        <v>0.23361150461671024</v>
+      </c>
+      <c r="G32">
+        <v>0.18104657163182511</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33">
+        <v>0.0027425756913644888</v>
+      </c>
+      <c r="C33">
+        <v>0.045124576649152821</v>
+      </c>
+      <c r="D33">
+        <v>0.10539615234578231</v>
+      </c>
+      <c r="E33">
+        <v>0.845128463007502</v>
+      </c>
+      <c r="F33">
+        <v>0.0016027975246148908</v>
+      </c>
+      <c r="G33">
+        <v>5.4347815834717641e-06</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34">
+        <v>0.0073457203103783003</v>
+      </c>
+      <c r="C34">
+        <v>0.0092883499438853549</v>
+      </c>
+      <c r="D34">
+        <v>0.019942316281540886</v>
+      </c>
+      <c r="E34">
+        <v>0.035750274013626314</v>
+      </c>
+      <c r="F34">
+        <v>0.9276720678633259</v>
+      </c>
+      <c r="G34">
+        <v>1.2715872432485062e-06</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35">
+        <v>0.011092220745268064</v>
+      </c>
+      <c r="C35">
+        <v>0.011343361065431557</v>
+      </c>
+      <c r="D35">
+        <v>0.027978037566711505</v>
+      </c>
+      <c r="E35">
+        <v>0.017290621632113912</v>
+      </c>
+      <c r="F35">
+        <v>0.93229364342720622</v>
+      </c>
+      <c r="G35">
+        <v>2.1155632687145759e-06</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36">
+        <v>0.016454882965303626</v>
+      </c>
+      <c r="C36">
+        <v>0.012500334369399827</v>
+      </c>
+      <c r="D36">
+        <v>0.028441503428678593</v>
+      </c>
+      <c r="E36">
+        <v>0.028287817084856372</v>
+      </c>
+      <c r="F36">
+        <v>0.91431474002432633</v>
+      </c>
+      <c r="G36">
+        <v>7.2212743518237512e-07</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37">
+        <v>0.01947507297625467</v>
+      </c>
+      <c r="C37">
+        <v>0.013701161802494147</v>
+      </c>
+      <c r="D37">
+        <v>0.027137344154800461</v>
+      </c>
+      <c r="E37">
+        <v>0.087089962127922846</v>
+      </c>
+      <c r="F37">
+        <v>0.85259539189613731</v>
+      </c>
+      <c r="G37">
+        <v>1.0670423905730588e-06</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38">
+        <v>0.0040561258239924522</v>
+      </c>
+      <c r="C38">
+        <v>0.015792090075088912</v>
+      </c>
+      <c r="D38">
+        <v>0.096027755604437451</v>
+      </c>
+      <c r="E38">
+        <v>0.0085550787808049387</v>
+      </c>
+      <c r="F38">
+        <v>0.87556510615246952</v>
+      </c>
+      <c r="G38">
+        <v>3.8435632067221351e-06</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39">
+        <v>0.012671061141875965</v>
+      </c>
+      <c r="C39">
+        <v>0.01267220846421708</v>
+      </c>
+      <c r="D39">
+        <v>0.03589187678156467</v>
+      </c>
+      <c r="E39">
+        <v>0.013989074329140471</v>
+      </c>
+      <c r="F39">
+        <v>0.92477236568638066</v>
+      </c>
+      <c r="G39">
+        <v>3.4135968210577613e-06</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40">
+        <v>0.039765620572821833</v>
+      </c>
+      <c r="C40">
+        <v>0.01770631438063883</v>
+      </c>
+      <c r="D40">
+        <v>0.063464285175868912</v>
+      </c>
+      <c r="E40">
+        <v>0.024628444505502525</v>
+      </c>
+      <c r="F40">
+        <v>0.85443287820300329</v>
+      </c>
+      <c r="G40">
+        <v>2.4571621647053738e-06</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41">
+        <v>0.010725682065181454</v>
+      </c>
+      <c r="C41">
+        <v>0.022157845264793669</v>
+      </c>
+      <c r="D41">
+        <v>0.053318181404258924</v>
+      </c>
+      <c r="E41">
+        <v>0.0044210921808761254</v>
+      </c>
+      <c r="F41">
+        <v>0.90932074319333678</v>
+      </c>
+      <c r="G41">
+        <v>5.6455891553100918e-05</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42">
+        <v>0.027233635392288579</v>
+      </c>
+      <c r="C42">
+        <v>0.02466407945670606</v>
+      </c>
+      <c r="D42">
+        <v>0.018170304873303286</v>
+      </c>
+      <c r="E42">
+        <v>0.0060137757339849378</v>
+      </c>
+      <c r="F42">
+        <v>0.92391313995517077</v>
+      </c>
+      <c r="G42">
+        <v>5.0645885463360022e-06</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43">
+        <v>0.056966098432342321</v>
+      </c>
+      <c r="C43">
+        <v>0.017425036109971544</v>
+      </c>
+      <c r="D43">
+        <v>0.032588912211707032</v>
+      </c>
+      <c r="E43">
+        <v>0.024008674616731947</v>
+      </c>
+      <c r="F43">
+        <v>0.86900529027191387</v>
+      </c>
+      <c r="G43">
+        <v>5.9883573332175912e-06</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44">
+        <v>0.012273430982111155</v>
+      </c>
+      <c r="C44">
+        <v>0.036061683628743561</v>
+      </c>
+      <c r="D44">
+        <v>0.062761508425277848</v>
+      </c>
+      <c r="E44">
+        <v>0.0042049470517063342</v>
+      </c>
+      <c r="F44">
+        <v>0.88449151651922175</v>
+      </c>
+      <c r="G44">
+        <v>0.00020691339293930992</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45">
+        <v>0.024396637419660468</v>
+      </c>
+      <c r="C45">
+        <v>0.031046097833982392</v>
+      </c>
+      <c r="D45">
+        <v>0.042207170317211294</v>
+      </c>
+      <c r="E45">
+        <v>0.0039135334640148442</v>
+      </c>
+      <c r="F45">
+        <v>0.89838767479017501</v>
+      </c>
+      <c r="G45">
+        <v>4.8886174955929436e-05</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46">
+        <v>0.063902826445152008</v>
+      </c>
+      <c r="C46">
+        <v>0.056926063143576108</v>
+      </c>
+      <c r="D46">
+        <v>0.072175372245113306</v>
+      </c>
+      <c r="E46">
+        <v>0.0015285270792032186</v>
+      </c>
+      <c r="F46">
+        <v>0.80466221567979468</v>
+      </c>
+      <c r="G46">
+        <v>0.00080499540716063266</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47">
+        <v>0.015125273937104416</v>
+      </c>
+      <c r="C47">
+        <v>0.010342102965687857</v>
+      </c>
+      <c r="D47">
+        <v>0.027171996338341723</v>
+      </c>
+      <c r="E47">
+        <v>0.017502364768734908</v>
+      </c>
+      <c r="F47">
+        <v>0.92985629011420667</v>
+      </c>
+      <c r="G47">
+        <v>1.9718759244816281e-06</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48">
+        <v>0.010195524501001715</v>
+      </c>
+      <c r="C48">
+        <v>0.032869436623971203</v>
+      </c>
+      <c r="D48">
+        <v>0.08251626334807495</v>
+      </c>
+      <c r="E48">
+        <v>0.0097234838134983102</v>
+      </c>
+      <c r="F48">
+        <v>0.00068708985529752919</v>
+      </c>
+      <c r="G48">
+        <v>0.8640082018581563</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49">
+        <v>0.015647731668425521</v>
+      </c>
+      <c r="C49">
+        <v>0.035983161441670818</v>
+      </c>
+      <c r="D49">
+        <v>0.10214228539270312</v>
+      </c>
+      <c r="E49">
+        <v>0.010955007007191691</v>
+      </c>
+      <c r="F49">
+        <v>0.0035514889674067626</v>
+      </c>
+      <c r="G49">
+        <v>0.83172032552260211</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50">
+        <v>0.10056828060428177</v>
+      </c>
+      <c r="C50">
+        <v>0.11931386834293738</v>
+      </c>
+      <c r="D50">
+        <v>0.27939120141295465</v>
+      </c>
+      <c r="E50">
+        <v>0.0058770807509293159</v>
+      </c>
+      <c r="F50">
+        <v>0.0050562436484076264</v>
+      </c>
+      <c r="G50">
+        <v>0.48979332524048924</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51">
+        <v>0.028497203304562197</v>
+      </c>
+      <c r="C51">
+        <v>0.053250574368669007</v>
+      </c>
+      <c r="D51">
+        <v>0.10119790958110386</v>
+      </c>
+      <c r="E51">
+        <v>0.017202103268607376</v>
+      </c>
+      <c r="F51">
+        <v>0.0028829569446887143</v>
+      </c>
+      <c r="G51">
+        <v>0.79696925253236883</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52">
+        <v>0.0017377396424421347</v>
+      </c>
+      <c r="C52">
+        <v>0.011066327328754094</v>
+      </c>
+      <c r="D52">
+        <v>0.025508908367794417</v>
+      </c>
+      <c r="E52">
+        <v>0.0048405491682746299</v>
+      </c>
+      <c r="F52">
+        <v>0.00051623704258473414</v>
+      </c>
+      <c r="G52">
+        <v>0.95633023845014997</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53">
+        <v>0.014143228932958147</v>
+      </c>
+      <c r="C53">
+        <v>0.037468343339918213</v>
+      </c>
+      <c r="D53">
+        <v>0.036407844386549551</v>
+      </c>
+      <c r="E53">
+        <v>0.00046136489634666754</v>
+      </c>
+      <c r="F53">
+        <v>0.0012549699501935962</v>
+      </c>
+      <c r="G53">
+        <v>0.91026424849403387</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54">
+        <v>0.0074623110653780668</v>
+      </c>
+      <c r="C54">
+        <v>0.024864507162790921</v>
+      </c>
+      <c r="D54">
+        <v>0.0829735144000876</v>
+      </c>
+      <c r="E54">
+        <v>0.0029230996377208082</v>
+      </c>
+      <c r="F54">
+        <v>0.0017078206886497768</v>
+      </c>
+      <c r="G54">
+        <v>0.88006874704537286</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55">
+        <v>0.0080259131317220699</v>
+      </c>
+      <c r="C55">
+        <v>0.011007829932083713</v>
+      </c>
+      <c r="D55">
+        <v>0.068362627739577048</v>
+      </c>
+      <c r="E55">
+        <v>0.00012011789872218024</v>
+      </c>
+      <c r="F55">
+        <v>0.00011159743215335651</v>
+      </c>
+      <c r="G55">
+        <v>0.91237191386574168</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56">
+        <v>0.0054663789494656112</v>
+      </c>
+      <c r="C56">
+        <v>0.017059253553436786</v>
+      </c>
+      <c r="D56">
+        <v>0.050615336390102642</v>
+      </c>
+      <c r="E56">
+        <v>2.9610987067500688e-05</v>
+      </c>
+      <c r="F56">
+        <v>0.00035358412567475976</v>
+      </c>
+      <c r="G56">
+        <v>0.92647583599425265</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57">
+        <v>0.011028315860064412</v>
+      </c>
+      <c r="C57">
+        <v>0.021250857215497899</v>
+      </c>
+      <c r="D57">
+        <v>0.038693123934460914</v>
+      </c>
+      <c r="E57">
+        <v>0.00056509727197262701</v>
+      </c>
+      <c r="F57">
+        <v>0.0023096524330364437</v>
+      </c>
+      <c r="G57">
+        <v>0.92615295328496772</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58">
+        <v>0.0015871039509641526</v>
+      </c>
+      <c r="C58">
+        <v>0.012812458512660382</v>
+      </c>
+      <c r="D58">
+        <v>0.058340694467271199</v>
+      </c>
+      <c r="E58">
+        <v>5.2908317831986562e-05</v>
+      </c>
+      <c r="F58">
+        <v>0.00098770626466412339</v>
+      </c>
+      <c r="G58">
+        <v>0.92621912848660815</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59">
+        <v>0.0156125253828835</v>
+      </c>
+      <c r="C59">
+        <v>0.030997365451376945</v>
+      </c>
+      <c r="D59">
+        <v>0.053964369464700575</v>
+      </c>
+      <c r="E59">
+        <v>8.414884693622415e-05</v>
+      </c>
+      <c r="F59">
+        <v>0.0032814005808559682</v>
+      </c>
+      <c r="G59">
+        <v>0.89606019027324668</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60">
+        <v>0.010398648627011821</v>
+      </c>
+      <c r="C60">
+        <v>0.034694869731460486</v>
+      </c>
+      <c r="D60">
+        <v>0.01208149412487089</v>
+      </c>
+      <c r="E60">
+        <v>0.0015333786448794475</v>
+      </c>
+      <c r="F60">
+        <v>0.008507026048364931</v>
+      </c>
+      <c r="G60">
+        <v>0.93278458282341248</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61">
+        <v>0.0055899868656395331</v>
+      </c>
+      <c r="C61">
+        <v>0.018256520151774119</v>
+      </c>
+      <c r="D61">
+        <v>0.0052642540292052583</v>
+      </c>
+      <c r="E61">
+        <v>0.0053281072395050871</v>
+      </c>
+      <c r="F61">
+        <v>0.0048353099960190072</v>
+      </c>
+      <c r="G61">
+        <v>0.96072582171785703</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62">
+        <v>0.0073713114763972265</v>
+      </c>
+      <c r="C62">
+        <v>0.039506777027273204</v>
+      </c>
+      <c r="D62">
+        <v>0.056705927671088313</v>
+      </c>
+      <c r="E62">
+        <v>0.01541737415415474</v>
+      </c>
+      <c r="F62">
+        <v>0.00096800975948639124</v>
+      </c>
+      <c r="G62">
+        <v>0.88003059991160015</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63">
+        <v>0.0063512470084982333</v>
+      </c>
+      <c r="C63">
+        <v>0.034419047100460405</v>
+      </c>
+      <c r="D63">
+        <v>0.023745034931757985</v>
+      </c>
+      <c r="E63">
+        <v>0.0014490801454726302</v>
+      </c>
+      <c r="F63">
+        <v>0.0036260863357805012</v>
+      </c>
+      <c r="G63">
+        <v>0.93040950447803028</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64">
+        <v>0.024267673498605077</v>
+      </c>
+      <c r="C64">
+        <v>0.027974499636551593</v>
+      </c>
+      <c r="D64">
+        <v>0.024229286739934991</v>
+      </c>
+      <c r="E64">
+        <v>7.0192671558622569e-06</v>
+      </c>
+      <c r="F64">
+        <v>0.0040440983077255389</v>
+      </c>
+      <c r="G64">
+        <v>0.91947742255002696</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65">
+        <v>0.014845221440529389</v>
+      </c>
+      <c r="C65">
+        <v>0.019069099396630838</v>
+      </c>
+      <c r="D65">
+        <v>0.042704741150106661</v>
+      </c>
+      <c r="E65">
+        <v>4.0007519755086008e-05</v>
+      </c>
+      <c r="F65">
+        <v>0.0049183294166227466</v>
+      </c>
+      <c r="G65">
+        <v>0.91842260107635532</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66">
+        <v>0.012316218641218124</v>
+      </c>
+      <c r="C66">
+        <v>0.043266216228157892</v>
+      </c>
+      <c r="D66">
+        <v>0.013152757579745619</v>
+      </c>
+      <c r="E66">
+        <v>2.0374949921781292e-07</v>
+      </c>
+      <c r="F66">
+        <v>0.00063116864163781188</v>
+      </c>
+      <c r="G66">
+        <v>0.9306334351597414</v>
+      </c>
+      <c r="H66">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67">
+        <v>0.0056003732192168674</v>
+      </c>
+      <c r="C67">
+        <v>0.018859904801521967</v>
+      </c>
+      <c r="D67">
+        <v>0.0047039126704135886</v>
+      </c>
+      <c r="E67">
+        <v>2.1840981054515878e-06</v>
+      </c>
+      <c r="F67">
+        <v>0.0020414350076791853</v>
+      </c>
+      <c r="G67">
+        <v>0.96879219020306295</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68">
+        <v>0.0048834308347364564</v>
+      </c>
+      <c r="C68">
+        <v>0.008857127839529735</v>
+      </c>
+      <c r="D68">
+        <v>0.0026955315723429336</v>
+      </c>
+      <c r="E68">
+        <v>7.7031347747560077e-07</v>
+      </c>
+      <c r="F68">
+        <v>0.0010202869565803826</v>
+      </c>
+      <c r="G68">
+        <v>0.98254285248333306</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69">
+        <v>0.003682415477900285</v>
+      </c>
+      <c r="C69">
+        <v>0.040720171988378503</v>
+      </c>
+      <c r="D69">
+        <v>0.0036184325337941031</v>
+      </c>
+      <c r="E69">
+        <v>2.5581515155133305e-05</v>
+      </c>
+      <c r="F69">
+        <v>0.0033245122888152815</v>
+      </c>
+      <c r="G69">
+        <v>0.94862888619595676</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I70"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="true"/>
+    <col min="2" max="2" width="21.85546875" customWidth="true"/>
+    <col min="3" max="3" width="21.85546875" customWidth="true"/>
+    <col min="4" max="4" width="21.85546875" customWidth="true"/>
+    <col min="5" max="5" width="21.85546875" customWidth="true"/>
+    <col min="6" max="6" width="21.85546875" customWidth="true"/>
+    <col min="7" max="7" width="21.85546875" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <v>0.89230220199060284</v>
+      </c>
+      <c r="C2">
+        <v>0.028794276883596787</v>
+      </c>
+      <c r="D2">
+        <v>0.023238828237909733</v>
+      </c>
+      <c r="E2">
+        <v>0.055414213737575511</v>
+      </c>
+      <c r="F2">
+        <v>0.00021795007357111078</v>
+      </c>
+      <c r="G2">
+        <v>3.2529076743977933e-05</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3">
+        <v>0.44888700802784542</v>
+      </c>
+      <c r="C3">
+        <v>0.17769485760119066</v>
+      </c>
+      <c r="D3">
+        <v>0.28333402853706108</v>
+      </c>
+      <c r="E3">
+        <v>0.062308930054547962</v>
+      </c>
+      <c r="F3">
+        <v>0.027767157327866807</v>
+      </c>
+      <c r="G3">
+        <v>8.0184514881378984e-06</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4">
+        <v>0.57950562327395816</v>
+      </c>
+      <c r="C4">
+        <v>0.14909693121908318</v>
+      </c>
+      <c r="D4">
+        <v>0.23674574463001091</v>
+      </c>
+      <c r="E4">
+        <v>0.031397047582350346</v>
+      </c>
+      <c r="F4">
+        <v>0.0031605251942966222</v>
+      </c>
+      <c r="G4">
+        <v>9.412810030085431e-05</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5">
+        <v>0.39701651574825042</v>
+      </c>
+      <c r="C5">
+        <v>0.066488630942783997</v>
+      </c>
+      <c r="D5">
+        <v>0.11687980866277338</v>
+      </c>
+      <c r="E5">
+        <v>0.04138745640807813</v>
+      </c>
+      <c r="F5">
+        <v>0.37815747617952861</v>
+      </c>
+      <c r="G5">
+        <v>7.011205858524616e-05</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6">
+        <v>0.8819101677825828</v>
+      </c>
+      <c r="C6">
+        <v>0.032502668384508708</v>
+      </c>
+      <c r="D6">
+        <v>0.036696843381863346</v>
+      </c>
+      <c r="E6">
+        <v>0.04692276889694004</v>
+      </c>
+      <c r="F6">
+        <v>0.0019127067553896108</v>
+      </c>
+      <c r="G6">
+        <v>5.4844798715508458e-05</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <v>0.87465056643948091</v>
+      </c>
+      <c r="C7">
+        <v>0.028243125145570175</v>
+      </c>
+      <c r="D7">
+        <v>0.049974718007119549</v>
+      </c>
+      <c r="E7">
+        <v>0.046155870437413551</v>
+      </c>
+      <c r="F7">
+        <v>0.00074807258983877398</v>
+      </c>
+      <c r="G7">
+        <v>0.00022764738057699517</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8">
+        <v>0.11062594896042477</v>
+      </c>
+      <c r="C8">
+        <v>0.24311151310275464</v>
+      </c>
+      <c r="D8">
+        <v>0.34732596748027239</v>
+      </c>
+      <c r="E8">
+        <v>0.28548602870246181</v>
+      </c>
+      <c r="F8">
+        <v>0.011370386789436211</v>
+      </c>
+      <c r="G8">
+        <v>0.0020801549646500268</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9">
+        <v>0.099785171219265362</v>
+      </c>
+      <c r="C9">
+        <v>0.16812968604193146</v>
+      </c>
+      <c r="D9">
+        <v>0.24930047662109037</v>
+      </c>
+      <c r="E9">
+        <v>0.29662026324974766</v>
+      </c>
+      <c r="F9">
+        <v>0.0087397618145785439</v>
+      </c>
+      <c r="G9">
+        <v>0.17742464105338651</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10">
+        <v>0.11329383098718721</v>
+      </c>
+      <c r="C10">
+        <v>0.24829804094883928</v>
+      </c>
+      <c r="D10">
+        <v>0.30514304831763672</v>
+      </c>
+      <c r="E10">
+        <v>0.32348971920748892</v>
+      </c>
+      <c r="F10">
+        <v>0.0096877878221075086</v>
+      </c>
+      <c r="G10">
+        <v>8.7572716740583559e-05</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11">
+        <v>0.091903454002981388</v>
+      </c>
+      <c r="C11">
+        <v>0.29496026372038781</v>
+      </c>
+      <c r="D11">
+        <v>0.3533778493405545</v>
+      </c>
+      <c r="E11">
+        <v>0.24379642000113427</v>
+      </c>
+      <c r="F11">
+        <v>0.015948588371137305</v>
+      </c>
+      <c r="G11">
+        <v>1.3424563804763412e-05</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12">
+        <v>0.17676289422412769</v>
+      </c>
+      <c r="C12">
+        <v>0.23032520167048201</v>
+      </c>
+      <c r="D12">
+        <v>0.33413913732262235</v>
+      </c>
+      <c r="E12">
+        <v>0.23453546127987318</v>
+      </c>
+      <c r="F12">
+        <v>0.024188368807443447</v>
+      </c>
+      <c r="G12">
+        <v>4.8936695451290171e-05</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13">
+        <v>0.1213746889509541</v>
+      </c>
+      <c r="C13">
+        <v>0.22635768877424212</v>
+      </c>
+      <c r="D13">
+        <v>0.35177981628941263</v>
+      </c>
+      <c r="E13">
+        <v>0.28731784377202968</v>
+      </c>
+      <c r="F13">
+        <v>0.013085676117422465</v>
+      </c>
+      <c r="G13">
+        <v>8.4286095939002496e-05</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14">
+        <v>0.1311832424584376</v>
+      </c>
+      <c r="C14">
+        <v>0.26489774520948572</v>
+      </c>
+      <c r="D14">
+        <v>0.39735303709294023</v>
+      </c>
+      <c r="E14">
+        <v>0.20305556572032332</v>
+      </c>
+      <c r="F14">
+        <v>0.0033004456898884592</v>
+      </c>
+      <c r="G14">
+        <v>0.00020996382892454868</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15">
+        <v>0.38757676804188174</v>
+      </c>
+      <c r="C15">
+        <v>0.20318306997679653</v>
+      </c>
+      <c r="D15">
+        <v>0.32726298366583134</v>
+      </c>
+      <c r="E15">
+        <v>0.050358807109789648</v>
+      </c>
+      <c r="F15">
+        <v>0.031587356508960412</v>
+      </c>
+      <c r="G15">
+        <v>3.1014696740412928e-05</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16">
+        <v>0.19938349174063003</v>
+      </c>
+      <c r="C16">
+        <v>0.295142673073444</v>
+      </c>
+      <c r="D16">
+        <v>0.34656778036648811</v>
+      </c>
+      <c r="E16">
+        <v>0.079526002323706851</v>
+      </c>
+      <c r="F16">
+        <v>0.079351259417246328</v>
+      </c>
+      <c r="G16">
+        <v>2.8793078484783065e-05</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17">
+        <v>0.084095857776093685</v>
+      </c>
+      <c r="C17">
+        <v>0.29084656222569749</v>
+      </c>
+      <c r="D17">
+        <v>0.30603603264928447</v>
+      </c>
+      <c r="E17">
+        <v>0.3159272009781503</v>
+      </c>
+      <c r="F17">
+        <v>0.0014582088684969275</v>
+      </c>
+      <c r="G17">
+        <v>0.0016361375022773022</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18">
+        <v>0.1130353659863424</v>
+      </c>
+      <c r="C18">
+        <v>0.25823784076688333</v>
+      </c>
+      <c r="D18">
+        <v>0.35908130476275535</v>
+      </c>
+      <c r="E18">
+        <v>0.25091383053625888</v>
+      </c>
+      <c r="F18">
+        <v>0.018600340936372816</v>
+      </c>
+      <c r="G18">
+        <v>0.00013131701138735833</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19">
+        <v>0.049710158376844969</v>
+      </c>
+      <c r="C19">
+        <v>0.14249515262693241</v>
+      </c>
+      <c r="D19">
+        <v>0.17371338404439163</v>
+      </c>
+      <c r="E19">
+        <v>0.60876085096851162</v>
+      </c>
+      <c r="F19">
+        <v>0.024900233843424453</v>
+      </c>
+      <c r="G19">
+        <v>0.00042022013989474836</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20">
+        <v>0.15640220570346769</v>
+      </c>
+      <c r="C20">
+        <v>0.28817024647202472</v>
+      </c>
+      <c r="D20">
+        <v>0.35879107220041817</v>
+      </c>
+      <c r="E20">
+        <v>0.16268437005951947</v>
+      </c>
+      <c r="F20">
+        <v>0.033891083164724334</v>
+      </c>
+      <c r="G20">
+        <v>6.1022399845617926e-05</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21">
+        <v>0.19314005982816043</v>
+      </c>
+      <c r="C21">
+        <v>0.25650085778823889</v>
+      </c>
+      <c r="D21">
+        <v>0.35522471002950246</v>
+      </c>
+      <c r="E21">
+        <v>0.14596120423602252</v>
+      </c>
+      <c r="F21">
+        <v>0.047795554219400099</v>
+      </c>
+      <c r="G21">
+        <v>0.0013776138986756161</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22">
+        <v>0.083911393615782218</v>
+      </c>
+      <c r="C22">
+        <v>0.24276733528036762</v>
+      </c>
+      <c r="D22">
+        <v>0.33213460321477373</v>
+      </c>
+      <c r="E22">
+        <v>0.33120939758104884</v>
+      </c>
+      <c r="F22">
+        <v>0.007233240678124195</v>
+      </c>
+      <c r="G22">
+        <v>0.0027440296299033888</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23">
+        <v>0.7903238044571429</v>
+      </c>
+      <c r="C23">
+        <v>0.074895121905649981</v>
+      </c>
+      <c r="D23">
+        <v>0.12957402377942565</v>
+      </c>
+      <c r="E23">
+        <v>0.00080094629760201982</v>
+      </c>
+      <c r="F23">
+        <v>0.004217234176255428</v>
+      </c>
+      <c r="G23">
+        <v>0.00018886938392392221</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24">
+        <v>0.19856799608329817</v>
+      </c>
+      <c r="C24">
+        <v>0.21894608819862355</v>
+      </c>
+      <c r="D24">
+        <v>0.33801797230374808</v>
+      </c>
+      <c r="E24">
+        <v>0.19815389351099197</v>
+      </c>
+      <c r="F24">
+        <v>0.0072640680090418006</v>
+      </c>
+      <c r="G24">
+        <v>0.039049981894296613</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25">
+        <v>0.57663765129734024</v>
+      </c>
+      <c r="C25">
+        <v>0.18832086477226423</v>
+      </c>
+      <c r="D25">
+        <v>0.21729177807072178</v>
+      </c>
+      <c r="E25">
+        <v>0.0013711936650353223</v>
+      </c>
+      <c r="F25">
+        <v>0.0059413984425329067</v>
+      </c>
+      <c r="G25">
+        <v>0.010437113752105803</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26">
+        <v>0.4340469138455208</v>
+      </c>
+      <c r="C26">
+        <v>0.24948626321967407</v>
+      </c>
+      <c r="D26">
+        <v>0.21578715554531713</v>
+      </c>
+      <c r="E26">
+        <v>0.0024909949222588351</v>
+      </c>
+      <c r="F26">
+        <v>0.054368409486501686</v>
+      </c>
+      <c r="G26">
+        <v>0.043820262980727318</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27">
+        <v>0.7353208247589218</v>
+      </c>
+      <c r="C27">
+        <v>0.10963818486289743</v>
+      </c>
+      <c r="D27">
+        <v>0.10351421716141626</v>
+      </c>
+      <c r="E27">
+        <v>3.0912745801154124e-08</v>
+      </c>
+      <c r="F27">
+        <v>0.00023345288999823113</v>
+      </c>
+      <c r="G27">
+        <v>0.051293289414020504</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28">
+        <v>0.79696090664540487</v>
+      </c>
+      <c r="C28">
+        <v>0.077469480622132297</v>
+      </c>
+      <c r="D28">
+        <v>0.09515680730436335</v>
+      </c>
+      <c r="E28">
+        <v>1.40834207754057e-08</v>
+      </c>
+      <c r="F28">
+        <v>0.0037251408854542378</v>
+      </c>
+      <c r="G28">
+        <v>0.026687650459224457</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29">
+        <v>0.13732262136885209</v>
+      </c>
+      <c r="C29">
+        <v>0.27414285686548878</v>
+      </c>
+      <c r="D29">
+        <v>0.35511315332843102</v>
+      </c>
+      <c r="E29">
+        <v>0.19743883642952148</v>
+      </c>
+      <c r="F29">
+        <v>0.035968976174171156</v>
+      </c>
+      <c r="G29">
+        <v>1.355583353553959e-05</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30">
+        <v>0.034359614954757083</v>
+      </c>
+      <c r="C30">
+        <v>0.08533753781959505</v>
+      </c>
+      <c r="D30">
+        <v>0.12241447111575096</v>
+      </c>
+      <c r="E30">
+        <v>0.74969021846105977</v>
+      </c>
+      <c r="F30">
+        <v>0.0080260102418085767</v>
+      </c>
+      <c r="G30">
+        <v>0.00017214740702862729</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31">
+        <v>0.030218169698102881</v>
+      </c>
+      <c r="C31">
+        <v>0.072216413061470475</v>
+      </c>
+      <c r="D31">
+        <v>0.11507060362934034</v>
+      </c>
+      <c r="E31">
+        <v>0.78028464394536379</v>
+      </c>
+      <c r="F31">
+        <v>0.0021191375292100487</v>
+      </c>
+      <c r="G31">
+        <v>9.1032136512480592e-05</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32">
+        <v>0.038272804514711239</v>
+      </c>
+      <c r="C32">
+        <v>0.077567365813630135</v>
+      </c>
+      <c r="D32">
+        <v>0.11482021433956699</v>
+      </c>
+      <c r="E32">
+        <v>0.76570771647943536</v>
+      </c>
+      <c r="F32">
+        <v>0.0033099060747665528</v>
+      </c>
+      <c r="G32">
+        <v>0.00032199277788979994</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33">
+        <v>0.032579210825763108</v>
+      </c>
+      <c r="C33">
+        <v>0.15151269435429848</v>
+      </c>
+      <c r="D33">
+        <v>0.25781359710116897</v>
+      </c>
+      <c r="E33">
+        <v>0.55206922566316885</v>
+      </c>
+      <c r="F33">
+        <v>0.0059336416549627324</v>
+      </c>
+      <c r="G33">
+        <v>9.1630400637719508e-05</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34">
+        <v>0.039253025704391209</v>
+      </c>
+      <c r="C34">
+        <v>0.10388549888401714</v>
+      </c>
+      <c r="D34">
+        <v>0.21310625218450038</v>
+      </c>
+      <c r="E34">
+        <v>0.62977363615822057</v>
+      </c>
+      <c r="F34">
+        <v>0.013787811362725052</v>
+      </c>
+      <c r="G34">
+        <v>0.0001937757061454261</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35">
+        <v>0.066777168835409947</v>
+      </c>
+      <c r="C35">
+        <v>0.17940565444470283</v>
+      </c>
+      <c r="D35">
+        <v>0.21881886307175297</v>
+      </c>
+      <c r="E35">
+        <v>0.47975234892604879</v>
+      </c>
+      <c r="F35">
+        <v>0.002479482894138821</v>
+      </c>
+      <c r="G35">
+        <v>0.052766481827946687</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36">
+        <v>0.023147706473767706</v>
+      </c>
+      <c r="C36">
+        <v>0.13663102831100399</v>
+      </c>
+      <c r="D36">
+        <v>0.19264965054051272</v>
+      </c>
+      <c r="E36">
+        <v>0.64325896251509429</v>
+      </c>
+      <c r="F36">
+        <v>0.0042415406443587558</v>
+      </c>
+      <c r="G36">
+        <v>7.1111515262551827e-05</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37">
+        <v>0.039487666309543756</v>
+      </c>
+      <c r="C37">
+        <v>0.077050913446587335</v>
+      </c>
+      <c r="D37">
+        <v>0.094965906454292939</v>
+      </c>
+      <c r="E37">
+        <v>0.78436240005780122</v>
+      </c>
+      <c r="F37">
+        <v>0.0037471337316828334</v>
+      </c>
+      <c r="G37">
+        <v>0.00038598000009183638</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38">
+        <v>0.0088411733733799354</v>
+      </c>
+      <c r="C38">
+        <v>0.020753758906583906</v>
+      </c>
+      <c r="D38">
+        <v>0.037054408357660031</v>
+      </c>
+      <c r="E38">
+        <v>0.024908965568520805</v>
+      </c>
+      <c r="F38">
+        <v>0.90843511438298052</v>
+      </c>
+      <c r="G38">
+        <v>6.5794108749057454e-06</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39">
+        <v>0.0092267593890680167</v>
+      </c>
+      <c r="C39">
+        <v>0.022549928944053201</v>
+      </c>
+      <c r="D39">
+        <v>0.035217391568680374</v>
+      </c>
+      <c r="E39">
+        <v>0.024903534524864747</v>
+      </c>
+      <c r="F39">
+        <v>0.90809832453331074</v>
+      </c>
+      <c r="G39">
+        <v>4.0610400229294216e-06</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40">
+        <v>0.027509191582134274</v>
+      </c>
+      <c r="C40">
+        <v>0.082402222878646625</v>
+      </c>
+      <c r="D40">
+        <v>0.19095106427448943</v>
+      </c>
+      <c r="E40">
+        <v>0.02894113596298566</v>
+      </c>
+      <c r="F40">
+        <v>0.67019292998534186</v>
+      </c>
+      <c r="G40">
+        <v>3.4553164021291503e-06</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41">
+        <v>0.0076314311796096051</v>
+      </c>
+      <c r="C41">
+        <v>0.020411755763689077</v>
+      </c>
+      <c r="D41">
+        <v>0.04146384278620268</v>
+      </c>
+      <c r="E41">
+        <v>0.024745484967910084</v>
+      </c>
+      <c r="F41">
+        <v>0.90574430211855039</v>
+      </c>
+      <c r="G41">
+        <v>3.1831840380756987e-06</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42">
+        <v>0.011715000109044971</v>
+      </c>
+      <c r="C42">
+        <v>0.02340659030661071</v>
+      </c>
+      <c r="D42">
+        <v>0.037869628044917961</v>
+      </c>
+      <c r="E42">
+        <v>0.024162740537560467</v>
+      </c>
+      <c r="F42">
+        <v>0.90283063957633902</v>
+      </c>
+      <c r="G42">
+        <v>1.5401425526818799e-05</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43">
+        <v>0.01989579042197882</v>
+      </c>
+      <c r="C43">
+        <v>0.033659435125173415</v>
+      </c>
+      <c r="D43">
+        <v>0.031227088194625992</v>
+      </c>
+      <c r="E43">
+        <v>0.017951609059273167</v>
+      </c>
+      <c r="F43">
+        <v>0.8972215980677033</v>
+      </c>
+      <c r="G43">
+        <v>4.4479131245251773e-05</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44">
+        <v>0.008793025182054862</v>
+      </c>
+      <c r="C44">
+        <v>0.028122761816898791</v>
+      </c>
+      <c r="D44">
+        <v>0.05290714543841845</v>
+      </c>
+      <c r="E44">
+        <v>0.019388889203224062</v>
+      </c>
+      <c r="F44">
+        <v>0.89077572304395114</v>
+      </c>
+      <c r="G44">
+        <v>1.2455315452620268e-05</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45">
+        <v>0.018269581616441589</v>
+      </c>
+      <c r="C45">
+        <v>0.040610735611583258</v>
+      </c>
+      <c r="D45">
+        <v>0.030798840838249356</v>
+      </c>
+      <c r="E45">
+        <v>0.010230366302588901</v>
+      </c>
+      <c r="F45">
+        <v>0.90007814140202946</v>
+      </c>
+      <c r="G45">
+        <v>1.2334229107434144e-05</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46">
+        <v>0.017092381913929137</v>
+      </c>
+      <c r="C46">
+        <v>0.032379788490127209</v>
+      </c>
+      <c r="D46">
+        <v>0.048296034463183285</v>
+      </c>
+      <c r="E46">
+        <v>0.019157000062527019</v>
+      </c>
+      <c r="F46">
+        <v>0.88305513507891475</v>
+      </c>
+      <c r="G46">
+        <v>1.9659991318561787e-05</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47">
+        <v>0.064097544214118035</v>
+      </c>
+      <c r="C47">
+        <v>0.078662447742489414</v>
+      </c>
+      <c r="D47">
+        <v>0.13189275967602079</v>
+      </c>
+      <c r="E47">
+        <v>0.068076836023716253</v>
+      </c>
+      <c r="F47">
+        <v>0.65314317200882399</v>
+      </c>
+      <c r="G47">
+        <v>0.004127240334831612</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48">
+        <v>0.17018923468122402</v>
+      </c>
+      <c r="C48">
+        <v>0.11347218938086617</v>
+      </c>
+      <c r="D48">
+        <v>0.17014329354813681</v>
+      </c>
+      <c r="E48">
+        <v>0.054256932224266578</v>
+      </c>
+      <c r="F48">
+        <v>0.49126736055073494</v>
+      </c>
+      <c r="G48">
+        <v>0.00067098961477158432</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49">
+        <v>0.063741110256918532</v>
+      </c>
+      <c r="C49">
+        <v>0.050314799725605784</v>
+      </c>
+      <c r="D49">
+        <v>0.064040607486426315</v>
+      </c>
+      <c r="E49">
+        <v>0.021262572345505947</v>
+      </c>
+      <c r="F49">
+        <v>0.80005647689581694</v>
+      </c>
+      <c r="G49">
+        <v>0.00058443328972650275</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50">
+        <v>0.16165572287403093</v>
+      </c>
+      <c r="C50">
+        <v>0.14569361123952393</v>
+      </c>
+      <c r="D50">
+        <v>0.17237963653883012</v>
+      </c>
+      <c r="E50">
+        <v>0.030524809634228451</v>
+      </c>
+      <c r="F50">
+        <v>0.47602803156732176</v>
+      </c>
+      <c r="G50">
+        <v>0.013718188146064798</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51">
+        <v>0.022715297297917297</v>
+      </c>
+      <c r="C51">
+        <v>0.038275830710048989</v>
+      </c>
+      <c r="D51">
+        <v>0.068541075571718735</v>
+      </c>
+      <c r="E51">
+        <v>0.048243985057609073</v>
+      </c>
+      <c r="F51">
+        <v>0.0020824381805085394</v>
+      </c>
+      <c r="G51">
+        <v>0.82014137318219726</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52">
+        <v>0.030955129652049468</v>
+      </c>
+      <c r="C52">
+        <v>0.038406966029876401</v>
+      </c>
+      <c r="D52">
+        <v>0.064989501163764909</v>
+      </c>
+      <c r="E52">
+        <v>0.051690001618660143</v>
+      </c>
+      <c r="F52">
+        <v>0.0010588773929555411</v>
+      </c>
+      <c r="G52">
+        <v>0.81289952414269351</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53">
+        <v>0.0058201564982706807</v>
+      </c>
+      <c r="C53">
+        <v>0.023951930891198129</v>
+      </c>
+      <c r="D53">
+        <v>0.049975242461636447</v>
+      </c>
+      <c r="E53">
+        <v>0.039939744965446347</v>
+      </c>
+      <c r="F53">
+        <v>0.00089781408135584527</v>
+      </c>
+      <c r="G53">
+        <v>0.87941511110209258</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54">
+        <v>0.0021287481580987496</v>
+      </c>
+      <c r="C54">
+        <v>0.021989149241508601</v>
+      </c>
+      <c r="D54">
+        <v>0.034503251024898519</v>
+      </c>
+      <c r="E54">
+        <v>0.042101955319948238</v>
+      </c>
+      <c r="F54">
+        <v>0.001146445473106297</v>
+      </c>
+      <c r="G54">
+        <v>0.89813045078243958</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55">
+        <v>0.0088518515941763132</v>
+      </c>
+      <c r="C55">
+        <v>0.023403757889329333</v>
+      </c>
+      <c r="D55">
+        <v>0.052654966602263313</v>
+      </c>
+      <c r="E55">
+        <v>0.021917218423660165</v>
+      </c>
+      <c r="F55">
+        <v>0.0011314712166578516</v>
+      </c>
+      <c r="G55">
+        <v>0.89204073427391295</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56">
+        <v>0.0094563576300531419</v>
+      </c>
+      <c r="C56">
+        <v>0.025859728384393488</v>
+      </c>
+      <c r="D56">
+        <v>0.056069589000780622</v>
+      </c>
+      <c r="E56">
+        <v>0.0063771569635859664</v>
+      </c>
+      <c r="F56">
+        <v>0.0034805519846973789</v>
+      </c>
+      <c r="G56">
+        <v>0.89875661603648938</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57">
+        <v>0.007976819861401965</v>
+      </c>
+      <c r="C57">
+        <v>0.011468401514544166</v>
+      </c>
+      <c r="D57">
+        <v>0.03822134818176582</v>
+      </c>
+      <c r="E57">
+        <v>0.0019622415589629098</v>
+      </c>
+      <c r="F57">
+        <v>0.0018528222532245987</v>
+      </c>
+      <c r="G57">
+        <v>0.93851836663010058</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58">
+        <v>0.0077207847478898859</v>
+      </c>
+      <c r="C58">
+        <v>0.03877945966585826</v>
+      </c>
+      <c r="D58">
+        <v>0.051885092828065152</v>
+      </c>
+      <c r="E58">
+        <v>0.0067890825222495085</v>
+      </c>
+      <c r="F58">
+        <v>0.0095252669080024676</v>
+      </c>
+      <c r="G58">
+        <v>0.88530031332793468</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59">
+        <v>0.0076229614645502855</v>
+      </c>
+      <c r="C59">
+        <v>0.017272979087718035</v>
+      </c>
+      <c r="D59">
+        <v>0.045158320007187162</v>
+      </c>
+      <c r="E59">
+        <v>0.0046597640658779449</v>
+      </c>
+      <c r="F59">
+        <v>0.0012123802331881195</v>
+      </c>
+      <c r="G59">
+        <v>0.92407359514147847</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60">
+        <v>0.02917433478154231</v>
+      </c>
+      <c r="C60">
+        <v>0.027248210248629636</v>
+      </c>
+      <c r="D60">
+        <v>0.061496294670049557</v>
+      </c>
+      <c r="E60">
+        <v>0.013917319638872466</v>
+      </c>
+      <c r="F60">
+        <v>0.0036011874122306858</v>
+      </c>
+      <c r="G60">
+        <v>0.86456265324867532</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61">
+        <v>0.0017908097272596073</v>
+      </c>
+      <c r="C61">
+        <v>0.013765446726789449</v>
+      </c>
+      <c r="D61">
+        <v>0.061201356070608448</v>
+      </c>
+      <c r="E61">
+        <v>0.0062383510950880759</v>
+      </c>
+      <c r="F61">
+        <v>0.0032467965607252507</v>
+      </c>
+      <c r="G61">
+        <v>0.91375723981952917</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62">
+        <v>0.00075443867472250136</v>
+      </c>
+      <c r="C62">
+        <v>0.017340122094203759</v>
+      </c>
+      <c r="D62">
+        <v>0.027252799409736107</v>
+      </c>
+      <c r="E62">
+        <v>0.0099689151100676859</v>
+      </c>
+      <c r="F62">
+        <v>0.0054732604123009752</v>
+      </c>
+      <c r="G62">
+        <v>0.93921046429896893</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63">
+        <v>0.024722744352748422</v>
+      </c>
+      <c r="C63">
+        <v>0.017430894978619306</v>
+      </c>
+      <c r="D63">
+        <v>0.054881192357273643</v>
+      </c>
+      <c r="E63">
+        <v>0.00083513437130916437</v>
+      </c>
+      <c r="F63">
+        <v>0.00079353745174992553</v>
+      </c>
+      <c r="G63">
+        <v>0.90133649648829961</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64">
+        <v>0.0091660835915484302</v>
+      </c>
+      <c r="C64">
+        <v>0.038737180352636999</v>
+      </c>
+      <c r="D64">
+        <v>0.022925138225044255</v>
+      </c>
+      <c r="E64">
+        <v>0.0022878807864340684</v>
+      </c>
+      <c r="F64">
+        <v>0.0023789253364651045</v>
+      </c>
+      <c r="G64">
+        <v>0.92450479170787114</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65">
+        <v>0.0035783612650088776</v>
+      </c>
+      <c r="C65">
+        <v>0.011028605993900639</v>
+      </c>
+      <c r="D65">
+        <v>0.050103421803301323</v>
+      </c>
+      <c r="E65">
+        <v>0.001554082495940461</v>
+      </c>
+      <c r="F65">
+        <v>0.001834612297664754</v>
+      </c>
+      <c r="G65">
+        <v>0.93190091614418402</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66">
+        <v>0.006360971804113668</v>
+      </c>
+      <c r="C66">
+        <v>0.023211401498940149</v>
+      </c>
+      <c r="D66">
+        <v>0.020447515118452098</v>
+      </c>
+      <c r="E66">
+        <v>0.0059542369739294188</v>
+      </c>
+      <c r="F66">
+        <v>0.0075125718145290961</v>
+      </c>
+      <c r="G66">
+        <v>0.93651330279003564</v>
+      </c>
+      <c r="H66">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67">
+        <v>0.00163078038596033</v>
+      </c>
+      <c r="C67">
+        <v>0.010074981308535713</v>
+      </c>
+      <c r="D67">
+        <v>0.053302839237811296</v>
+      </c>
+      <c r="E67">
+        <v>0.00052428711095971105</v>
+      </c>
+      <c r="F67">
+        <v>0.0021562653804749203</v>
+      </c>
+      <c r="G67">
+        <v>0.93231084657625807</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68">
+        <v>0.0056940275230103485</v>
+      </c>
+      <c r="C68">
+        <v>0.02221590177840381</v>
+      </c>
+      <c r="D68">
+        <v>0.026384837971086979</v>
+      </c>
+      <c r="E68">
+        <v>0.0011388361418597163</v>
+      </c>
+      <c r="F68">
+        <v>0.0063493481263146587</v>
+      </c>
+      <c r="G68">
+        <v>0.93821704845932441</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69">
+        <v>0.013310508940571288</v>
+      </c>
+      <c r="C69">
+        <v>0.034253433594914888</v>
+      </c>
+      <c r="D69">
+        <v>0.059513478378977365</v>
+      </c>
+      <c r="E69">
+        <v>0.049947699615107817</v>
+      </c>
+      <c r="F69">
+        <v>0.0012690918497304357</v>
+      </c>
+      <c r="G69">
+        <v>0.84170578762069825</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70">
+        <v>0.067018304111263152</v>
+      </c>
+      <c r="C70">
+        <v>0.11266121002668868</v>
+      </c>
+      <c r="D70">
+        <v>0.087497634225270085</v>
+      </c>
+      <c r="E70">
+        <v>0.0021895139501751661</v>
+      </c>
+      <c r="F70">
+        <v>0.010754659549555075</v>
+      </c>
+      <c r="G70">
+        <v>0.71987867813704798</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I70"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="true"/>
+    <col min="2" max="2" width="21.85546875" customWidth="true"/>
+    <col min="3" max="3" width="21.85546875" customWidth="true"/>
+    <col min="4" max="4" width="21.85546875" customWidth="true"/>
+    <col min="5" max="5" width="21.85546875" customWidth="true"/>
+    <col min="6" max="6" width="21.85546875" customWidth="true"/>
+    <col min="7" max="7" width="21.85546875" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2">
+        <v>0.8860513361521184</v>
+      </c>
+      <c r="C2">
+        <v>0.020620554261137194</v>
+      </c>
+      <c r="D2">
+        <v>0.085448617723228204</v>
+      </c>
+      <c r="E2">
+        <v>0.0069398219819481683</v>
+      </c>
+      <c r="F2">
+        <v>0.00077433331660519951</v>
+      </c>
+      <c r="G2">
+        <v>0.00016533656496281314</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3">
+        <v>0.89432965171848566</v>
+      </c>
+      <c r="C3">
+        <v>0.0266148256640663</v>
+      </c>
+      <c r="D3">
+        <v>0.056030752482466674</v>
+      </c>
+      <c r="E3">
+        <v>0.022927532079095217</v>
+      </c>
+      <c r="F3">
+        <v>3.263695544823016e-05</v>
+      </c>
+      <c r="G3">
+        <v>6.4601100437900564e-05</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4">
+        <v>0.86773968015094838</v>
+      </c>
+      <c r="C4">
+        <v>0.021297392868379377</v>
+      </c>
+      <c r="D4">
+        <v>0.096356615132753551</v>
+      </c>
+      <c r="E4">
+        <v>0.013783297907726883</v>
+      </c>
+      <c r="F4">
+        <v>0.00014993068145874707</v>
+      </c>
+      <c r="G4">
+        <v>0.00067308325873300474</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5">
+        <v>0.79386178647301153</v>
+      </c>
+      <c r="C5">
+        <v>0.02366285114643369</v>
+      </c>
+      <c r="D5">
+        <v>0.17308419103746023</v>
+      </c>
+      <c r="E5">
+        <v>0.0084592711236072104</v>
+      </c>
+      <c r="F5">
+        <v>0.00082039653684390108</v>
+      </c>
+      <c r="G5">
+        <v>0.00011150368264341282</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6">
+        <v>0.77393644084688717</v>
+      </c>
+      <c r="C6">
+        <v>0.042369226142182748</v>
+      </c>
+      <c r="D6">
+        <v>0.14018450452708878</v>
+      </c>
+      <c r="E6">
+        <v>0.040993890677780469</v>
+      </c>
+      <c r="F6">
+        <v>0.0012665578528715539</v>
+      </c>
+      <c r="G6">
+        <v>0.0012493799531892204</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7">
+        <v>0.83453671318209455</v>
+      </c>
+      <c r="C7">
+        <v>0.030176760606481175</v>
+      </c>
+      <c r="D7">
+        <v>0.10764891361828084</v>
+      </c>
+      <c r="E7">
+        <v>0.026568452983826658</v>
+      </c>
+      <c r="F7">
+        <v>0.00043491429798757369</v>
+      </c>
+      <c r="G7">
+        <v>0.00063424531132928686</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8">
+        <v>0.84916079055189664</v>
+      </c>
+      <c r="C8">
+        <v>0.030814920913021442</v>
+      </c>
+      <c r="D8">
+        <v>0.092297493525410154</v>
+      </c>
+      <c r="E8">
+        <v>0.025144631815887726</v>
+      </c>
+      <c r="F8">
+        <v>0.0024245425531890042</v>
+      </c>
+      <c r="G8">
+        <v>0.0001576206405951033</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9">
+        <v>0.86894376327445544</v>
+      </c>
+      <c r="C9">
+        <v>0.038572649314445887</v>
+      </c>
+      <c r="D9">
+        <v>0.064016729208369927</v>
+      </c>
+      <c r="E9">
+        <v>0.027861445151261509</v>
+      </c>
+      <c r="F9">
+        <v>0.00030089366038557559</v>
+      </c>
+      <c r="G9">
+        <v>0.0003045193910816516</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10">
+        <v>0.39347422269539956</v>
+      </c>
+      <c r="C10">
+        <v>0.1676016340853676</v>
+      </c>
+      <c r="D10">
+        <v>0.3563274293695442</v>
+      </c>
+      <c r="E10">
+        <v>0.074004429753792206</v>
+      </c>
+      <c r="F10">
+        <v>0.0031573311725545681</v>
+      </c>
+      <c r="G10">
+        <v>0.0054349529233419548</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11">
+        <v>0.90225444159271728</v>
+      </c>
+      <c r="C11">
+        <v>0.016387625874825</v>
+      </c>
+      <c r="D11">
+        <v>0.069468655661107812</v>
+      </c>
+      <c r="E11">
+        <v>0.011727643456018481</v>
+      </c>
+      <c r="F11">
+        <v>6.6325035078760019e-05</v>
+      </c>
+      <c r="G11">
+        <v>9.5308380252658425e-05</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12">
+        <v>0.86663860313004704</v>
+      </c>
+      <c r="C12">
+        <v>0.050002854785834078</v>
+      </c>
+      <c r="D12">
+        <v>0.050419032212113378</v>
+      </c>
+      <c r="E12">
+        <v>0.032509897122171436</v>
+      </c>
+      <c r="F12">
+        <v>0.00035311406534459315</v>
+      </c>
+      <c r="G12">
+        <v>7.6498684489453506e-05</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13">
+        <v>0.51935609669908211</v>
+      </c>
+      <c r="C13">
+        <v>0.087150462554174232</v>
+      </c>
+      <c r="D13">
+        <v>0.23103620804193317</v>
+      </c>
+      <c r="E13">
+        <v>0.089890268710360016</v>
+      </c>
+      <c r="F13">
+        <v>0.001511081335985308</v>
+      </c>
+      <c r="G13">
+        <v>0.071055882658465019</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14">
+        <v>0.64472074811653013</v>
+      </c>
+      <c r="C14">
+        <v>0.082601729356613585</v>
+      </c>
+      <c r="D14">
+        <v>0.18237148959766875</v>
+      </c>
+      <c r="E14">
+        <v>0.061721595057529874</v>
+      </c>
+      <c r="F14">
+        <v>0.0079629695786870361</v>
+      </c>
+      <c r="G14">
+        <v>0.020621468292970648</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15">
+        <v>0.78108415477454307</v>
+      </c>
+      <c r="C15">
+        <v>0.062769767198451787</v>
+      </c>
+      <c r="D15">
+        <v>0.10761027154344383</v>
+      </c>
+      <c r="E15">
+        <v>0.045734613366166757</v>
+      </c>
+      <c r="F15">
+        <v>0.0014845163166063644</v>
+      </c>
+      <c r="G15">
+        <v>0.0013166768007882646</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16">
+        <v>0.90387476003810374</v>
+      </c>
+      <c r="C16">
+        <v>0.01593184532665743</v>
+      </c>
+      <c r="D16">
+        <v>0.072974729703479332</v>
+      </c>
+      <c r="E16">
+        <v>0.0070389490193425259</v>
+      </c>
+      <c r="F16">
+        <v>0.00011041279981995857</v>
+      </c>
+      <c r="G16">
+        <v>6.9303112596942672e-05</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17">
+        <v>0.32972340918381265</v>
+      </c>
+      <c r="C17">
+        <v>0.2194823864471436</v>
+      </c>
+      <c r="D17">
+        <v>0.39913342548852837</v>
+      </c>
+      <c r="E17">
+        <v>0.013167067720297307</v>
+      </c>
+      <c r="F17">
+        <v>0.038204714333079634</v>
+      </c>
+      <c r="G17">
+        <v>0.00028899682713837886</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18">
+        <v>0.5800083390488987</v>
+      </c>
+      <c r="C18">
+        <v>0.19520010743230476</v>
+      </c>
+      <c r="D18">
+        <v>0.17106075288524972</v>
+      </c>
+      <c r="E18">
+        <v>3.1334450728219552e-06</v>
+      </c>
+      <c r="F18">
+        <v>0.04684691081932766</v>
+      </c>
+      <c r="G18">
+        <v>0.0068807563691461616</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19">
+        <v>0.21464103593590614</v>
+      </c>
+      <c r="C19">
+        <v>0.25611734450645091</v>
+      </c>
+      <c r="D19">
+        <v>0.23226885692580246</v>
+      </c>
+      <c r="E19">
+        <v>0.037903229593630197</v>
+      </c>
+      <c r="F19">
+        <v>0.03674725277046352</v>
+      </c>
+      <c r="G19">
+        <v>0.22232228026774656</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20">
+        <v>0.8990040696499767</v>
+      </c>
+      <c r="C20">
+        <v>0.016990229024492501</v>
+      </c>
+      <c r="D20">
+        <v>0.074648571911440822</v>
+      </c>
+      <c r="E20">
+        <v>0.009192304384161765</v>
+      </c>
+      <c r="F20">
+        <v>6.3661376751700163e-05</v>
+      </c>
+      <c r="G20">
+        <v>0.00010116365317656551</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21">
+        <v>0.66313221968863945</v>
+      </c>
+      <c r="C21">
+        <v>0.049443306673195492</v>
+      </c>
+      <c r="D21">
+        <v>0.27281187733258566</v>
+      </c>
+      <c r="E21">
+        <v>0.014254835776208515</v>
+      </c>
+      <c r="F21">
+        <v>0.00032964661759364626</v>
+      </c>
+      <c r="G21">
+        <v>2.8113911777105446e-05</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22">
+        <v>0.040835935097245056</v>
+      </c>
+      <c r="C22">
+        <v>0.27685784644115252</v>
+      </c>
+      <c r="D22">
+        <v>0.39505617109820496</v>
+      </c>
+      <c r="E22">
+        <v>0.28384017924413546</v>
+      </c>
+      <c r="F22">
+        <v>0.0033526859999155056</v>
+      </c>
+      <c r="G22">
+        <v>5.7182119346510087e-05</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23">
+        <v>0.010947281894151529</v>
+      </c>
+      <c r="C23">
+        <v>0.19195674339982954</v>
+      </c>
+      <c r="D23">
+        <v>0.24672800243076831</v>
+      </c>
+      <c r="E23">
+        <v>0.54944151578976852</v>
+      </c>
+      <c r="F23">
+        <v>0.00045824298673734844</v>
+      </c>
+      <c r="G23">
+        <v>0.00046821349874483676</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24">
+        <v>0.09563069753523136</v>
+      </c>
+      <c r="C24">
+        <v>0.18792034484259865</v>
+      </c>
+      <c r="D24">
+        <v>0.47571700549477264</v>
+      </c>
+      <c r="E24">
+        <v>0.23330307373191261</v>
+      </c>
+      <c r="F24">
+        <v>0.0073843204393818935</v>
+      </c>
+      <c r="G24">
+        <v>4.4557956103055763e-05</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25">
+        <v>0.18860446464310335</v>
+      </c>
+      <c r="C25">
+        <v>0.20665690997105202</v>
+      </c>
+      <c r="D25">
+        <v>0.42434236862153651</v>
+      </c>
+      <c r="E25">
+        <v>0.1706798402564205</v>
+      </c>
+      <c r="F25">
+        <v>0.00060059362719096134</v>
+      </c>
+      <c r="G25">
+        <v>0.0091158228806966033</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26">
+        <v>0.204079649614057</v>
+      </c>
+      <c r="C26">
+        <v>0.1469535312311418</v>
+      </c>
+      <c r="D26">
+        <v>0.33650089755717671</v>
+      </c>
+      <c r="E26">
+        <v>0.10564577056696857</v>
+      </c>
+      <c r="F26">
+        <v>0.20615696402866371</v>
+      </c>
+      <c r="G26">
+        <v>0.00066318700199210969</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27">
+        <v>0.095436008388464152</v>
+      </c>
+      <c r="C27">
+        <v>0.27912548040541535</v>
+      </c>
+      <c r="D27">
+        <v>0.41894746923249354</v>
+      </c>
+      <c r="E27">
+        <v>0.20155663091661469</v>
+      </c>
+      <c r="F27">
+        <v>0.0048486607302808994</v>
+      </c>
+      <c r="G27">
+        <v>8.5750326731291298e-05</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28">
+        <v>0.051755809861401464</v>
+      </c>
+      <c r="C28">
+        <v>0.25639467046656655</v>
+      </c>
+      <c r="D28">
+        <v>0.45762281187975995</v>
+      </c>
+      <c r="E28">
+        <v>0.23123783649160168</v>
+      </c>
+      <c r="F28">
+        <v>0.0029314179501910898</v>
+      </c>
+      <c r="G28">
+        <v>5.7453350479182535e-05</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29">
+        <v>0.033116408869546782</v>
+      </c>
+      <c r="C29">
+        <v>0.20039549499096285</v>
+      </c>
+      <c r="D29">
+        <v>0.42324436155133294</v>
+      </c>
+      <c r="E29">
+        <v>0.34195686456369118</v>
+      </c>
+      <c r="F29">
+        <v>0.0011594763678817012</v>
+      </c>
+      <c r="G29">
+        <v>0.00012739365658472816</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30">
+        <v>0.035520263877083798</v>
+      </c>
+      <c r="C30">
+        <v>0.22394770477892542</v>
+      </c>
+      <c r="D30">
+        <v>0.41430028639346594</v>
+      </c>
+      <c r="E30">
+        <v>0.32385003235102411</v>
+      </c>
+      <c r="F30">
+        <v>0.0022081761714422424</v>
+      </c>
+      <c r="G30">
+        <v>0.00017353642805860664</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31">
+        <v>0.034618725550660118</v>
+      </c>
+      <c r="C31">
+        <v>0.14501000077766116</v>
+      </c>
+      <c r="D31">
+        <v>0.4365280639105884</v>
+      </c>
+      <c r="E31">
+        <v>0.38104079989920087</v>
+      </c>
+      <c r="F31">
+        <v>0.0027857585850809656</v>
+      </c>
+      <c r="G31">
+        <v>1.6651276808338899e-05</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32">
+        <v>0.11786595884160742</v>
+      </c>
+      <c r="C32">
+        <v>0.17765684703140636</v>
+      </c>
+      <c r="D32">
+        <v>0.45546389307033025</v>
+      </c>
+      <c r="E32">
+        <v>0.22077930806762627</v>
+      </c>
+      <c r="F32">
+        <v>0.027886463612466619</v>
+      </c>
+      <c r="G32">
+        <v>0.00034752937656306649</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33">
+        <v>0.24812804144953096</v>
+      </c>
+      <c r="C33">
+        <v>0.19828672901623604</v>
+      </c>
+      <c r="D33">
+        <v>0.42496399745594626</v>
+      </c>
+      <c r="E33">
+        <v>0.12528967145987313</v>
+      </c>
+      <c r="F33">
+        <v>0.0032440386320165115</v>
+      </c>
+      <c r="G33">
+        <v>8.7521986397257959e-05</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34">
+        <v>0.20796398098283436</v>
+      </c>
+      <c r="C34">
+        <v>0.18356199251762431</v>
+      </c>
+      <c r="D34">
+        <v>0.41111505857037051</v>
+      </c>
+      <c r="E34">
+        <v>0.19151842574500819</v>
+      </c>
+      <c r="F34">
+        <v>0.0026985487130193214</v>
+      </c>
+      <c r="G34">
+        <v>0.0031419934711434108</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35">
+        <v>0.087527876702412147</v>
+      </c>
+      <c r="C35">
+        <v>0.16414392271934708</v>
+      </c>
+      <c r="D35">
+        <v>0.34587352813257893</v>
+      </c>
+      <c r="E35">
+        <v>0.30468999457829382</v>
+      </c>
+      <c r="F35">
+        <v>0.0015085817143459278</v>
+      </c>
+      <c r="G35">
+        <v>0.096256096153022108</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36">
+        <v>0.14119921169756774</v>
+      </c>
+      <c r="C36">
+        <v>0.25615375784347227</v>
+      </c>
+      <c r="D36">
+        <v>0.4536605423743541</v>
+      </c>
+      <c r="E36">
+        <v>0.14302138011126858</v>
+      </c>
+      <c r="F36">
+        <v>0.0059504714578064079</v>
+      </c>
+      <c r="G36">
+        <v>1.4636515530904599e-05</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37">
+        <v>0.045523163260849785</v>
+      </c>
+      <c r="C37">
+        <v>0.27733983514395988</v>
+      </c>
+      <c r="D37">
+        <v>0.39409727047619331</v>
+      </c>
+      <c r="E37">
+        <v>0.27680456903285888</v>
+      </c>
+      <c r="F37">
+        <v>0.0060643303219250506</v>
+      </c>
+      <c r="G37">
+        <v>0.00017083176421317495</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38">
+        <v>0.0078586846236753816</v>
+      </c>
+      <c r="C38">
+        <v>0.1169982847532962</v>
+      </c>
+      <c r="D38">
+        <v>0.20325010868195231</v>
+      </c>
+      <c r="E38">
+        <v>0.67130425502924951</v>
+      </c>
+      <c r="F38">
+        <v>0.00046893954557990876</v>
+      </c>
+      <c r="G38">
+        <v>0.00011972736624664182</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39">
+        <v>0.010120721519271627</v>
+      </c>
+      <c r="C39">
+        <v>0.10670434620007831</v>
+      </c>
+      <c r="D39">
+        <v>0.22026363223117085</v>
+      </c>
+      <c r="E39">
+        <v>0.66251010041259173</v>
+      </c>
+      <c r="F39">
+        <v>0.00038141982616176858</v>
+      </c>
+      <c r="G39">
+        <v>1.9779810725881155e-05</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <v>0.010349701925124945</v>
+      </c>
+      <c r="C40">
+        <v>0.103225548809854</v>
+      </c>
+      <c r="D40">
+        <v>0.18219599457339555</v>
+      </c>
+      <c r="E40">
+        <v>0.70252479377678845</v>
+      </c>
+      <c r="F40">
+        <v>0.00066715543528475226</v>
+      </c>
+      <c r="G40">
+        <v>0.0010368054795524121</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41">
+        <v>0.036949408416352726</v>
+      </c>
+      <c r="C41">
+        <v>0.12284169020891406</v>
+      </c>
+      <c r="D41">
+        <v>0.30741276765590664</v>
+      </c>
+      <c r="E41">
+        <v>0.53180687749642697</v>
+      </c>
+      <c r="F41">
+        <v>0.00028329598183311132</v>
+      </c>
+      <c r="G41">
+        <v>0.00070596024056655739</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42">
+        <v>0.024107585081098056</v>
+      </c>
+      <c r="C42">
+        <v>0.10939045874783598</v>
+      </c>
+      <c r="D42">
+        <v>0.22946027481869391</v>
+      </c>
+      <c r="E42">
+        <v>0.6348597548614926</v>
+      </c>
+      <c r="F42">
+        <v>0.00088273487660818332</v>
+      </c>
+      <c r="G42">
+        <v>0.001299191614271301</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43">
+        <v>0.03014185676348876</v>
+      </c>
+      <c r="C43">
+        <v>0.10701550463475816</v>
+      </c>
+      <c r="D43">
+        <v>0.10281628618102262</v>
+      </c>
+      <c r="E43">
+        <v>0.43014668436242892</v>
+      </c>
+      <c r="F43">
+        <v>0.00020624075527999201</v>
+      </c>
+      <c r="G43">
+        <v>0.32967342730302146</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44">
+        <v>0.038262719209554139</v>
+      </c>
+      <c r="C44">
+        <v>0.095656748429192126</v>
+      </c>
+      <c r="D44">
+        <v>0.029226784448317094</v>
+      </c>
+      <c r="E44">
+        <v>0.48737070040814318</v>
+      </c>
+      <c r="F44">
+        <v>0.0013867504159145898</v>
+      </c>
+      <c r="G44">
+        <v>0.34809629708887901</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45">
+        <v>0.013857790887684259</v>
+      </c>
+      <c r="C45">
+        <v>0.015901051347286158</v>
+      </c>
+      <c r="D45">
+        <v>0.061249291757546613</v>
+      </c>
+      <c r="E45">
+        <v>0.020512237563577066</v>
+      </c>
+      <c r="F45">
+        <v>0.88846753609980456</v>
+      </c>
+      <c r="G45">
+        <v>1.2092344101431346e-05</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46">
+        <v>0.0075448337320150518</v>
+      </c>
+      <c r="C46">
+        <v>0.015682014666884091</v>
+      </c>
+      <c r="D46">
+        <v>0.072440651631854439</v>
+      </c>
+      <c r="E46">
+        <v>0.016610149815669967</v>
+      </c>
+      <c r="F46">
+        <v>0.8877195930418762</v>
+      </c>
+      <c r="G46">
+        <v>2.7571117001789005e-06</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47">
+        <v>0.014457408899546048</v>
+      </c>
+      <c r="C47">
+        <v>0.020499046621735111</v>
+      </c>
+      <c r="D47">
+        <v>0.06949872445534544</v>
+      </c>
+      <c r="E47">
+        <v>0.025266854766978857</v>
+      </c>
+      <c r="F47">
+        <v>0.87026204682299069</v>
+      </c>
+      <c r="G47">
+        <v>1.5918433403849138e-05</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48">
+        <v>0.020415052410579431</v>
+      </c>
+      <c r="C48">
+        <v>0.018339562359156035</v>
+      </c>
+      <c r="D48">
+        <v>0.051218567110839754</v>
+      </c>
+      <c r="E48">
+        <v>0.026501500339030169</v>
+      </c>
+      <c r="F48">
+        <v>0.88351853531533342</v>
+      </c>
+      <c r="G48">
+        <v>6.7824650611310767e-06</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49">
+        <v>0.016366022460272758</v>
+      </c>
+      <c r="C49">
+        <v>0.020091952968721273</v>
+      </c>
+      <c r="D49">
+        <v>0.065212989861918744</v>
+      </c>
+      <c r="E49">
+        <v>0.030924676021674289</v>
+      </c>
+      <c r="F49">
+        <v>0.86734880691928173</v>
+      </c>
+      <c r="G49">
+        <v>5.5551768131296414e-05</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50">
+        <v>0.015012435384110739</v>
+      </c>
+      <c r="C50">
+        <v>0.022994739703065044</v>
+      </c>
+      <c r="D50">
+        <v>0.078956274389246558</v>
+      </c>
+      <c r="E50">
+        <v>0.029373842198008194</v>
+      </c>
+      <c r="F50">
+        <v>0.85360538596396052</v>
+      </c>
+      <c r="G50">
+        <v>5.7322361608837862e-05</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51">
+        <v>0.083216558258633236</v>
+      </c>
+      <c r="C51">
+        <v>0.048635356470414989</v>
+      </c>
+      <c r="D51">
+        <v>0.10980581582905198</v>
+      </c>
+      <c r="E51">
+        <v>0.035629104222845917</v>
+      </c>
+      <c r="F51">
+        <v>0.72239490524432748</v>
+      </c>
+      <c r="G51">
+        <v>0.00031825997472638439</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52">
+        <v>0.044913383789154521</v>
+      </c>
+      <c r="C52">
+        <v>0.032306881326726045</v>
+      </c>
+      <c r="D52">
+        <v>0.033929232449473649</v>
+      </c>
+      <c r="E52">
+        <v>0.015271976088921576</v>
+      </c>
+      <c r="F52">
+        <v>0.87356107852228959</v>
+      </c>
+      <c r="G52">
+        <v>1.7447823434603199e-05</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53">
+        <v>0.073320221789151568</v>
+      </c>
+      <c r="C53">
+        <v>0.074106694421491898</v>
+      </c>
+      <c r="D53">
+        <v>0.081315955265780102</v>
+      </c>
+      <c r="E53">
+        <v>0.016360316248342836</v>
+      </c>
+      <c r="F53">
+        <v>0.75168822266742585</v>
+      </c>
+      <c r="G53">
+        <v>0.00320858960780768</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54">
+        <v>0.012792098799225781</v>
+      </c>
+      <c r="C54">
+        <v>0.033985166746174293</v>
+      </c>
+      <c r="D54">
+        <v>0.034480035071295094</v>
+      </c>
+      <c r="E54">
+        <v>0.048763187500875806</v>
+      </c>
+      <c r="F54">
+        <v>0.00021210663554713569</v>
+      </c>
+      <c r="G54">
+        <v>0.8697674052468819</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55">
+        <v>0.021172779444096644</v>
+      </c>
+      <c r="C55">
+        <v>0.032731876126107867</v>
+      </c>
+      <c r="D55">
+        <v>0.12052840892737383</v>
+      </c>
+      <c r="E55">
+        <v>0.017153243610955504</v>
+      </c>
+      <c r="F55">
+        <v>0.00097794145657750819</v>
+      </c>
+      <c r="G55">
+        <v>0.80743575043488858</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56">
+        <v>0.017391098826967908</v>
+      </c>
+      <c r="C56">
+        <v>0.034018481519979188</v>
+      </c>
+      <c r="D56">
+        <v>0.066889478878300324</v>
+      </c>
+      <c r="E56">
+        <v>0.067923077825740752</v>
+      </c>
+      <c r="F56">
+        <v>6.9576616054260434e-05</v>
+      </c>
+      <c r="G56">
+        <v>0.81370828633295755</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57">
+        <v>0.014236889793079244</v>
+      </c>
+      <c r="C57">
+        <v>0.03110420718115272</v>
+      </c>
+      <c r="D57">
+        <v>0.077959467894961221</v>
+      </c>
+      <c r="E57">
+        <v>0.006424549547235394</v>
+      </c>
+      <c r="F57">
+        <v>0.0038460269588487337</v>
+      </c>
+      <c r="G57">
+        <v>0.86642885862472263</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58">
+        <v>0.0070936975422159834</v>
+      </c>
+      <c r="C58">
+        <v>0.010057720873532475</v>
+      </c>
+      <c r="D58">
+        <v>0.062517402397629165</v>
+      </c>
+      <c r="E58">
+        <v>0.0018469260644318633</v>
+      </c>
+      <c r="F58">
+        <v>3.7856993087776718e-05</v>
+      </c>
+      <c r="G58">
+        <v>0.91844639612910273</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59">
+        <v>0.0058721479962238832</v>
+      </c>
+      <c r="C59">
+        <v>0.019335024060965069</v>
+      </c>
+      <c r="D59">
+        <v>0.052438601228019591</v>
+      </c>
+      <c r="E59">
+        <v>0.0039381654152204036</v>
+      </c>
+      <c r="F59">
+        <v>0.00038080614348243809</v>
+      </c>
+      <c r="G59">
+        <v>0.91803525515608853</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B60">
+        <v>0.037453336263601367</v>
+      </c>
+      <c r="C60">
+        <v>0.03297298183311112</v>
+      </c>
+      <c r="D60">
+        <v>0.098176669159302288</v>
+      </c>
+      <c r="E60">
+        <v>0.00042745620291075178</v>
+      </c>
+      <c r="F60">
+        <v>0.00015439060345954063</v>
+      </c>
+      <c r="G60">
+        <v>0.83081516593761495</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61">
+        <v>0.027355025373885126</v>
+      </c>
+      <c r="C61">
+        <v>0.028724359844667004</v>
+      </c>
+      <c r="D61">
+        <v>0.052333671718691029</v>
+      </c>
+      <c r="E61">
+        <v>0.0020223678203332702</v>
+      </c>
+      <c r="F61">
+        <v>0.00061934305208618417</v>
+      </c>
+      <c r="G61">
+        <v>0.88894523219033739</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62">
+        <v>0.015844738542515988</v>
+      </c>
+      <c r="C62">
+        <v>0.022396760986979045</v>
+      </c>
+      <c r="D62">
+        <v>0.061289288333942774</v>
+      </c>
+      <c r="E62">
+        <v>0.0021098051243432902</v>
+      </c>
+      <c r="F62">
+        <v>0.0011808974016675731</v>
+      </c>
+      <c r="G62">
+        <v>0.89717850961055134</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B63">
+        <v>0.0051403037556851253</v>
+      </c>
+      <c r="C63">
+        <v>0.038501429961769203</v>
+      </c>
+      <c r="D63">
+        <v>0.011770864771667028</v>
+      </c>
+      <c r="E63">
+        <v>0.0095033493091348127</v>
+      </c>
+      <c r="F63">
+        <v>0.0019455988158462586</v>
+      </c>
+      <c r="G63">
+        <v>0.93313845338589751</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64">
+        <v>0.0067914053196963834</v>
+      </c>
+      <c r="C64">
+        <v>0.052086368422891563</v>
+      </c>
+      <c r="D64">
+        <v>0.019795776198143423</v>
+      </c>
+      <c r="E64">
+        <v>0.00078398140470209096</v>
+      </c>
+      <c r="F64">
+        <v>0.0054298944805779856</v>
+      </c>
+      <c r="G64">
+        <v>0.9151125741739885</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65">
+        <v>0.0095431501104040663</v>
+      </c>
+      <c r="C65">
+        <v>0.025915988009566245</v>
+      </c>
+      <c r="D65">
+        <v>0.049034224536369901</v>
+      </c>
+      <c r="E65">
+        <v>0.0018727618841613029</v>
+      </c>
+      <c r="F65">
+        <v>0.00057731564738316174</v>
+      </c>
+      <c r="G65">
+        <v>0.91305655981211531</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66">
+        <v>0.0047295500993632155</v>
+      </c>
+      <c r="C66">
+        <v>0.02566033586257804</v>
+      </c>
+      <c r="D66">
+        <v>0.024149077599750934</v>
+      </c>
+      <c r="E66">
+        <v>0.00034295016652955541</v>
+      </c>
+      <c r="F66">
+        <v>0.0019421256298963335</v>
+      </c>
+      <c r="G66">
+        <v>0.94317596064188192</v>
+      </c>
+      <c r="H66">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67">
+        <v>0.001691324542683291</v>
+      </c>
+      <c r="C67">
+        <v>0.018689949968284089</v>
+      </c>
+      <c r="D67">
+        <v>0.019881467097791865</v>
+      </c>
+      <c r="E67">
+        <v>0.002464291156379713</v>
+      </c>
+      <c r="F67">
+        <v>0.00046119915966505806</v>
+      </c>
+      <c r="G67">
+        <v>0.95681176807519597</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68">
+        <v>0.0034615181035449164</v>
+      </c>
+      <c r="C68">
+        <v>0.018162982009706646</v>
+      </c>
+      <c r="D68">
+        <v>0.030137478009456792</v>
+      </c>
+      <c r="E68">
+        <v>0.00020529300508362368</v>
+      </c>
+      <c r="F68">
+        <v>0.00033976373454496509</v>
+      </c>
+      <c r="G68">
+        <v>0.9476929651376631</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B69">
+        <v>0.01454841525616756</v>
+      </c>
+      <c r="C69">
+        <v>0.029126042029851362</v>
+      </c>
+      <c r="D69">
+        <v>0.011845280873912671</v>
+      </c>
+      <c r="E69">
+        <v>2.5107496518455378e-05</v>
+      </c>
+      <c r="F69">
+        <v>0.019866658721773449</v>
+      </c>
+      <c r="G69">
+        <v>0.92458849562177647</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70">
+        <v>0.010737108845646805</v>
+      </c>
+      <c r="C70">
+        <v>0.032070778005382716</v>
+      </c>
+      <c r="D70">
+        <v>0.025498253961784456</v>
+      </c>
+      <c r="E70">
+        <v>0.00025588940809846803</v>
+      </c>
+      <c r="F70">
+        <v>0.0015866739779691248</v>
+      </c>
+      <c r="G70">
+        <v>0.92985129580111836</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I69"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="true"/>
+    <col min="2" max="2" width="21.85546875" customWidth="true"/>
+    <col min="3" max="3" width="21.85546875" customWidth="true"/>
+    <col min="4" max="4" width="21.85546875" customWidth="true"/>
+    <col min="5" max="5" width="21.85546875" customWidth="true"/>
+    <col min="6" max="6" width="21.85546875" customWidth="true"/>
+    <col min="7" max="7" width="21.85546875" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2">
+        <v>0.94438921013724808</v>
+      </c>
+      <c r="C2">
+        <v>0.0083985038033364753</v>
+      </c>
+      <c r="D2">
+        <v>0.012991675987786043</v>
+      </c>
+      <c r="E2">
+        <v>0.033864679572095949</v>
+      </c>
+      <c r="F2">
+        <v>0.00027719369834425912</v>
+      </c>
+      <c r="G2">
+        <v>7.8736801189131341e-05</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3">
+        <v>0.95971485333323503</v>
+      </c>
+      <c r="C3">
+        <v>0.0058286308071237346</v>
+      </c>
+      <c r="D3">
+        <v>0.016695874917754431</v>
+      </c>
+      <c r="E3">
+        <v>0.017385693824871949</v>
+      </c>
+      <c r="F3">
+        <v>0.0003601350294501193</v>
+      </c>
+      <c r="G3">
+        <v>1.4812087564774521e-05</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4">
+        <v>0.90965510893046764</v>
+      </c>
+      <c r="C4">
+        <v>0.01158377807649256</v>
+      </c>
+      <c r="D4">
+        <v>0.062455327232162114</v>
+      </c>
+      <c r="E4">
+        <v>0.01585770094115449</v>
+      </c>
+      <c r="F4">
+        <v>0.00031989085777187136</v>
+      </c>
+      <c r="G4">
+        <v>0.00012819396195128688</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5">
+        <v>0.94075363993497652</v>
+      </c>
+      <c r="C5">
+        <v>0.0097501373351582422</v>
+      </c>
+      <c r="D5">
+        <v>0.011349229515658043</v>
+      </c>
+      <c r="E5">
+        <v>0.037757207172514372</v>
+      </c>
+      <c r="F5">
+        <v>0.00027571350942969696</v>
+      </c>
+      <c r="G5">
+        <v>0.00011407253226312781</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6">
+        <v>0.93632195357778281</v>
+      </c>
+      <c r="C6">
+        <v>0.0089889407517555666</v>
+      </c>
+      <c r="D6">
+        <v>0.045622566549011249</v>
+      </c>
+      <c r="E6">
+        <v>0.0083884937662555351</v>
+      </c>
+      <c r="F6">
+        <v>0.00067480577139103558</v>
+      </c>
+      <c r="G6">
+        <v>3.2395838038284889e-06</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7">
+        <v>0.22994340878354372</v>
+      </c>
+      <c r="C7">
+        <v>0.23068218652372335</v>
+      </c>
+      <c r="D7">
+        <v>0.47843908043450312</v>
+      </c>
+      <c r="E7">
+        <v>0.043065142429363629</v>
+      </c>
+      <c r="F7">
+        <v>0.017267419751655654</v>
+      </c>
+      <c r="G7">
+        <v>0.00060276207721072367</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8">
+        <v>0.92113930392741983</v>
+      </c>
+      <c r="C8">
+        <v>0.017416501422690193</v>
+      </c>
+      <c r="D8">
+        <v>0.026328975615756974</v>
+      </c>
+      <c r="E8">
+        <v>0.025348993434880406</v>
+      </c>
+      <c r="F8">
+        <v>0.0097083980746505653</v>
+      </c>
+      <c r="G8">
+        <v>5.7827524602028946e-05</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9">
+        <v>0.22804904646569391</v>
+      </c>
+      <c r="C9">
+        <v>0.16955204257354986</v>
+      </c>
+      <c r="D9">
+        <v>0.58786481910873511</v>
+      </c>
+      <c r="E9">
+        <v>0.0021483734269709498</v>
+      </c>
+      <c r="F9">
+        <v>0.0063943384729876242</v>
+      </c>
+      <c r="G9">
+        <v>0.0059913799520623472</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10">
+        <v>0.77927447107687853</v>
+      </c>
+      <c r="C10">
+        <v>0.039488005052093357</v>
+      </c>
+      <c r="D10">
+        <v>0.11588343386269623</v>
+      </c>
+      <c r="E10">
+        <v>0.036067369667186995</v>
+      </c>
+      <c r="F10">
+        <v>0.028835508947138416</v>
+      </c>
+      <c r="G10">
+        <v>0.00045121139400640246</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11">
+        <v>0.83603221413040663</v>
+      </c>
+      <c r="C11">
+        <v>0.040906297154317303</v>
+      </c>
+      <c r="D11">
+        <v>0.055193209437353265</v>
+      </c>
+      <c r="E11">
+        <v>0.055860181628425078</v>
+      </c>
+      <c r="F11">
+        <v>0.010856652273181456</v>
+      </c>
+      <c r="G11">
+        <v>0.001151445376316174</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12">
+        <v>0.82008559715617835</v>
+      </c>
+      <c r="C12">
+        <v>0.040084578086198815</v>
+      </c>
+      <c r="D12">
+        <v>0.084925441142481503</v>
+      </c>
+      <c r="E12">
+        <v>0.049017855969141363</v>
+      </c>
+      <c r="F12">
+        <v>0.0043341005097878461</v>
+      </c>
+      <c r="G12">
+        <v>0.0015524271362121159</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13">
+        <v>0.27089502834616624</v>
+      </c>
+      <c r="C13">
+        <v>0.1736509844298082</v>
+      </c>
+      <c r="D13">
+        <v>0.15934369330262424</v>
+      </c>
+      <c r="E13">
+        <v>0.18721931073037912</v>
+      </c>
+      <c r="F13">
+        <v>0.17116416420962119</v>
+      </c>
+      <c r="G13">
+        <v>0.037726818981401011</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14">
+        <v>0.37024870404341276</v>
+      </c>
+      <c r="C14">
+        <v>0.21683222723954362</v>
+      </c>
+      <c r="D14">
+        <v>0.37169935510999963</v>
+      </c>
+      <c r="E14">
+        <v>2.5141199093419934e-05</v>
+      </c>
+      <c r="F14">
+        <v>0.034084892561282713</v>
+      </c>
+      <c r="G14">
+        <v>0.007109679846667832</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15">
+        <v>0.22222667165089605</v>
+      </c>
+      <c r="C15">
+        <v>0.18565655376706286</v>
+      </c>
+      <c r="D15">
+        <v>0.40483770865528185</v>
+      </c>
+      <c r="E15">
+        <v>0.0032273851715478585</v>
+      </c>
+      <c r="F15">
+        <v>0.048342165774431282</v>
+      </c>
+      <c r="G15">
+        <v>0.13570951498078002</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16">
+        <v>0.068210235815033882</v>
+      </c>
+      <c r="C16">
+        <v>0.016633572426150559</v>
+      </c>
+      <c r="D16">
+        <v>0.38067223912598341</v>
+      </c>
+      <c r="E16">
+        <v>1.860736253123881e-05</v>
+      </c>
+      <c r="F16">
+        <v>0.0014422423412051722</v>
+      </c>
+      <c r="G16">
+        <v>0.53302310292909572</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17">
+        <v>0.4154665507619047</v>
+      </c>
+      <c r="C17">
+        <v>0.17465998956924059</v>
+      </c>
+      <c r="D17">
+        <v>0.40347788043553967</v>
+      </c>
+      <c r="E17">
+        <v>8.7953579159916158e-13</v>
+      </c>
+      <c r="F17">
+        <v>0.0012254792789700695</v>
+      </c>
+      <c r="G17">
+        <v>0.0051700999534654447</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18">
+        <v>0.96181634008964145</v>
+      </c>
+      <c r="C18">
+        <v>0.0056444027746941584</v>
+      </c>
+      <c r="D18">
+        <v>0.012944168218658882</v>
+      </c>
+      <c r="E18">
+        <v>0.019252476891138445</v>
+      </c>
+      <c r="F18">
+        <v>0.00032505938901148415</v>
+      </c>
+      <c r="G18">
+        <v>1.7552636855576227e-05</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19">
+        <v>0.089544766804867074</v>
+      </c>
+      <c r="C19">
+        <v>0.30764788035297091</v>
+      </c>
+      <c r="D19">
+        <v>0.50922348769452352</v>
+      </c>
+      <c r="E19">
+        <v>0.086138039766518099</v>
+      </c>
+      <c r="F19">
+        <v>0.0074451964242554904</v>
+      </c>
+      <c r="G19">
+        <v>6.2895686489446578e-07</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20">
+        <v>0.069766107329231303</v>
+      </c>
+      <c r="C20">
+        <v>0.26704600433632647</v>
+      </c>
+      <c r="D20">
+        <v>0.45074697804507613</v>
+      </c>
+      <c r="E20">
+        <v>0.20919011601813498</v>
+      </c>
+      <c r="F20">
+        <v>0.0032395093160924719</v>
+      </c>
+      <c r="G20">
+        <v>1.1284955138449002e-05</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21">
+        <v>0.050395229723893556</v>
+      </c>
+      <c r="C21">
+        <v>0.31678712877502802</v>
+      </c>
+      <c r="D21">
+        <v>0.42371698742862862</v>
+      </c>
+      <c r="E21">
+        <v>0.20588754129428266</v>
+      </c>
+      <c r="F21">
+        <v>0.0032065066066362577</v>
+      </c>
+      <c r="G21">
+        <v>6.6061715308536121e-06</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22">
+        <v>0.053045374174840634</v>
+      </c>
+      <c r="C22">
+        <v>0.16886273128264032</v>
+      </c>
+      <c r="D22">
+        <v>0.37892248203413043</v>
+      </c>
+      <c r="E22">
+        <v>0.3662388524141385</v>
+      </c>
+      <c r="F22">
+        <v>0.0076519758559703173</v>
+      </c>
+      <c r="G22">
+        <v>0.02527858423827976</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23">
+        <v>0.10151756996370997</v>
+      </c>
+      <c r="C23">
+        <v>0.15387417044052951</v>
+      </c>
+      <c r="D23">
+        <v>0.34858568936230111</v>
+      </c>
+      <c r="E23">
+        <v>0.1819385108151127</v>
+      </c>
+      <c r="F23">
+        <v>0.0058012342443191115</v>
+      </c>
+      <c r="G23">
+        <v>0.20828282517402757</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24">
+        <v>0.034295574434473695</v>
+      </c>
+      <c r="C24">
+        <v>0.28501794209805797</v>
+      </c>
+      <c r="D24">
+        <v>0.4715848493257459</v>
+      </c>
+      <c r="E24">
+        <v>0.20013020552775027</v>
+      </c>
+      <c r="F24">
+        <v>0.0089595127326915752</v>
+      </c>
+      <c r="G24">
+        <v>1.1915881280755413e-05</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25">
+        <v>0.034565748233385943</v>
+      </c>
+      <c r="C25">
+        <v>0.2443119080898295</v>
+      </c>
+      <c r="D25">
+        <v>0.44733226671921322</v>
+      </c>
+      <c r="E25">
+        <v>0.27063396385316929</v>
+      </c>
+      <c r="F25">
+        <v>0.0031516909114998031</v>
+      </c>
+      <c r="G25">
+        <v>4.4221929023446802e-06</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26">
+        <v>0.045219060194516013</v>
+      </c>
+      <c r="C26">
+        <v>0.17712654426695215</v>
+      </c>
+      <c r="D26">
+        <v>0.58967167109234708</v>
+      </c>
+      <c r="E26">
+        <v>0.17959123502273525</v>
+      </c>
+      <c r="F26">
+        <v>0.0081751723224900655</v>
+      </c>
+      <c r="G26">
+        <v>0.00021631710095932897</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B27">
+        <v>0.064373208543336002</v>
+      </c>
+      <c r="C27">
+        <v>0.19633639842906223</v>
+      </c>
+      <c r="D27">
+        <v>0.48911976450065348</v>
+      </c>
+      <c r="E27">
+        <v>0.24550727986130938</v>
+      </c>
+      <c r="F27">
+        <v>0.0042351118704415562</v>
+      </c>
+      <c r="G27">
+        <v>0.00042823679519746026</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28">
+        <v>0.024204722645346004</v>
+      </c>
+      <c r="C28">
+        <v>0.15413681238240329</v>
+      </c>
+      <c r="D28">
+        <v>0.31289217398135327</v>
+      </c>
+      <c r="E28">
+        <v>0.50220427252196753</v>
+      </c>
+      <c r="F28">
+        <v>0.003279523445091242</v>
+      </c>
+      <c r="G28">
+        <v>0.0032824950238386852</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29">
+        <v>0.10072817758012541</v>
+      </c>
+      <c r="C29">
+        <v>0.30365859947602158</v>
+      </c>
+      <c r="D29">
+        <v>0.46653506631238989</v>
+      </c>
+      <c r="E29">
+        <v>0.1191698334170037</v>
+      </c>
+      <c r="F29">
+        <v>0.0099022903440900336</v>
+      </c>
+      <c r="G29">
+        <v>6.0328703693410856e-06</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B30">
+        <v>0.023525374077133027</v>
+      </c>
+      <c r="C30">
+        <v>0.22888137889847243</v>
+      </c>
+      <c r="D30">
+        <v>0.31269578963794092</v>
+      </c>
+      <c r="E30">
+        <v>0.43067154005059644</v>
+      </c>
+      <c r="F30">
+        <v>0.0042229220483619382</v>
+      </c>
+      <c r="G30">
+        <v>2.9952874952511609e-06</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31">
+        <v>0.013679144850879859</v>
+      </c>
+      <c r="C31">
+        <v>0.14639792821583167</v>
+      </c>
+      <c r="D31">
+        <v>0.27375649313770956</v>
+      </c>
+      <c r="E31">
+        <v>0.56263615748276485</v>
+      </c>
+      <c r="F31">
+        <v>0.0034847619932793211</v>
+      </c>
+      <c r="G31">
+        <v>4.5514319534653394e-05</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32">
+        <v>0.012488793145051023</v>
+      </c>
+      <c r="C32">
+        <v>0.11120491549698422</v>
+      </c>
+      <c r="D32">
+        <v>0.24453040314114638</v>
+      </c>
+      <c r="E32">
+        <v>0.63024711244763088</v>
+      </c>
+      <c r="F32">
+        <v>0.0014862529332243348</v>
+      </c>
+      <c r="G32">
+        <v>4.2522835963248742e-05</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33">
+        <v>0.0227109065780727</v>
+      </c>
+      <c r="C33">
+        <v>0.13164371186897064</v>
+      </c>
+      <c r="D33">
+        <v>0.31580747650039209</v>
+      </c>
+      <c r="E33">
+        <v>0.52717062460796948</v>
+      </c>
+      <c r="F33">
+        <v>0.0025962641161384448</v>
+      </c>
+      <c r="G33">
+        <v>7.1016328456668235e-05</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34">
+        <v>0.12854181652072344</v>
+      </c>
+      <c r="C34">
+        <v>0.24638469815784311</v>
+      </c>
+      <c r="D34">
+        <v>0.47415870792808068</v>
+      </c>
+      <c r="E34">
+        <v>0.14671677106368761</v>
+      </c>
+      <c r="F34">
+        <v>0.0040681663080402945</v>
+      </c>
+      <c r="G34">
+        <v>0.00012984002162505991</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B35">
+        <v>0.038247077115194358</v>
+      </c>
+      <c r="C35">
+        <v>0.2287144284813471</v>
+      </c>
+      <c r="D35">
+        <v>0.46908809987291361</v>
+      </c>
+      <c r="E35">
+        <v>0.25576590202559929</v>
+      </c>
+      <c r="F35">
+        <v>0.0058868709692659494</v>
+      </c>
+      <c r="G35">
+        <v>0.0022976215356795833</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B36">
+        <v>0.01296510661573148</v>
+      </c>
+      <c r="C36">
+        <v>0.23169399773619104</v>
+      </c>
+      <c r="D36">
+        <v>0.23581230124796754</v>
+      </c>
+      <c r="E36">
+        <v>0.51853619177436394</v>
+      </c>
+      <c r="F36">
+        <v>0.00096117126398143613</v>
+      </c>
+      <c r="G36">
+        <v>3.123136176449469e-05</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37">
+        <v>0.026942211998002889</v>
+      </c>
+      <c r="C37">
+        <v>0.094723875884125869</v>
+      </c>
+      <c r="D37">
+        <v>0.21824073495898708</v>
+      </c>
+      <c r="E37">
+        <v>0.65812100092947656</v>
+      </c>
+      <c r="F37">
+        <v>0.00092473485134951072</v>
+      </c>
+      <c r="G37">
+        <v>0.0010474413780581183</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38">
+        <v>0.016627348999038994</v>
+      </c>
+      <c r="C38">
+        <v>0.070990237329592393</v>
+      </c>
+      <c r="D38">
+        <v>0.12776643209994554</v>
+      </c>
+      <c r="E38">
+        <v>0.77873752518860084</v>
+      </c>
+      <c r="F38">
+        <v>0.0024196156371410565</v>
+      </c>
+      <c r="G38">
+        <v>0.00345884074568133</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39">
+        <v>0.017232132110683654</v>
+      </c>
+      <c r="C39">
+        <v>0.086204379770258535</v>
+      </c>
+      <c r="D39">
+        <v>0.029186192021376168</v>
+      </c>
+      <c r="E39">
+        <v>0.85016987569833924</v>
+      </c>
+      <c r="F39">
+        <v>0.0033452791190120373</v>
+      </c>
+      <c r="G39">
+        <v>0.013862141280330337</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B40">
+        <v>0.01557640782437384</v>
+      </c>
+      <c r="C40">
+        <v>0.15384559152070051</v>
+      </c>
+      <c r="D40">
+        <v>0.29522735654766935</v>
+      </c>
+      <c r="E40">
+        <v>0.53389186850024228</v>
+      </c>
+      <c r="F40">
+        <v>0.0014506317608400747</v>
+      </c>
+      <c r="G40">
+        <v>8.1438461739275692e-06</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41">
+        <v>0.03046466046501969</v>
+      </c>
+      <c r="C41">
+        <v>0.15639904946575062</v>
+      </c>
+      <c r="D41">
+        <v>0.36204331367098835</v>
+      </c>
+      <c r="E41">
+        <v>0.44647277315311451</v>
+      </c>
+      <c r="F41">
+        <v>0.0046152204880530942</v>
+      </c>
+      <c r="G41">
+        <v>4.9827570737717931e-06</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42">
+        <v>0.0052233216229123575</v>
+      </c>
+      <c r="C42">
+        <v>0.0047802177062841837</v>
+      </c>
+      <c r="D42">
+        <v>0.025026965694580877</v>
+      </c>
+      <c r="E42">
+        <v>0.0070443352077470293</v>
+      </c>
+      <c r="F42">
+        <v>0.95792482142220292</v>
+      </c>
+      <c r="G42">
+        <v>3.3834627252769119e-07</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43">
+        <v>0.0039817409735529424</v>
+      </c>
+      <c r="C43">
+        <v>0.01180262691038474</v>
+      </c>
+      <c r="D43">
+        <v>0.016053837922696657</v>
+      </c>
+      <c r="E43">
+        <v>0.020310779232438458</v>
+      </c>
+      <c r="F43">
+        <v>0.94782790123341565</v>
+      </c>
+      <c r="G43">
+        <v>2.311372751151357e-05</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44">
+        <v>0.0045242118486621963</v>
+      </c>
+      <c r="C44">
+        <v>0.0097188841830324422</v>
+      </c>
+      <c r="D44">
+        <v>0.023628122130932658</v>
+      </c>
+      <c r="E44">
+        <v>0.018241318124184634</v>
+      </c>
+      <c r="F44">
+        <v>0.94386680182890692</v>
+      </c>
+      <c r="G44">
+        <v>2.0661884281122309e-05</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45">
+        <v>0.0020676329883065484</v>
+      </c>
+      <c r="C45">
+        <v>0.01059585813025592</v>
+      </c>
+      <c r="D45">
+        <v>0.054766669909678184</v>
+      </c>
+      <c r="E45">
+        <v>0.0087759710191764092</v>
+      </c>
+      <c r="F45">
+        <v>0.92377814805347813</v>
+      </c>
+      <c r="G45">
+        <v>1.5719899104792574e-05</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B46">
+        <v>0.0078519570702746348</v>
+      </c>
+      <c r="C46">
+        <v>0.015642969857634578</v>
+      </c>
+      <c r="D46">
+        <v>0.051098914640397106</v>
+      </c>
+      <c r="E46">
+        <v>0.018481592315562904</v>
+      </c>
+      <c r="F46">
+        <v>0.90685349839882112</v>
+      </c>
+      <c r="G46">
+        <v>7.106771730970331e-05</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B47">
+        <v>0.0080458296073498727</v>
+      </c>
+      <c r="C47">
+        <v>0.0049289333044691521</v>
+      </c>
+      <c r="D47">
+        <v>0.01699159734654981</v>
+      </c>
+      <c r="E47">
+        <v>0.010053774889798316</v>
+      </c>
+      <c r="F47">
+        <v>0.95997548212701145</v>
+      </c>
+      <c r="G47">
+        <v>4.3827248213564108e-06</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48">
+        <v>0.020113170997846014</v>
+      </c>
+      <c r="C48">
+        <v>0.05245295814993841</v>
+      </c>
+      <c r="D48">
+        <v>0.027497983317120459</v>
+      </c>
+      <c r="E48">
+        <v>0.016961819030247828</v>
+      </c>
+      <c r="F48">
+        <v>0.88256276998258854</v>
+      </c>
+      <c r="G48">
+        <v>0.00041129852225863406</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49">
+        <v>0.056532838165215614</v>
+      </c>
+      <c r="C49">
+        <v>0.17467402787915801</v>
+      </c>
+      <c r="D49">
+        <v>0.021823350187267655</v>
+      </c>
+      <c r="E49">
+        <v>0.024409585741150153</v>
+      </c>
+      <c r="F49">
+        <v>0.72210190481694392</v>
+      </c>
+      <c r="G49">
+        <v>0.00045829321026460187</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50">
+        <v>0.0033518948432851962</v>
+      </c>
+      <c r="C50">
+        <v>0.0055798188664718772</v>
+      </c>
+      <c r="D50">
+        <v>0.021459754218669455</v>
+      </c>
+      <c r="E50">
+        <v>0.012062575713103891</v>
+      </c>
+      <c r="F50">
+        <v>0.95754481901358612</v>
+      </c>
+      <c r="G50">
+        <v>1.1373448835330171e-06</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51">
+        <v>0.1817138322286545</v>
+      </c>
+      <c r="C51">
+        <v>0.30435672214774595</v>
+      </c>
+      <c r="D51">
+        <v>0.37893151414300752</v>
+      </c>
+      <c r="E51">
+        <v>0.055401581206440544</v>
+      </c>
+      <c r="F51">
+        <v>0.017494472910664395</v>
+      </c>
+      <c r="G51">
+        <v>0.062101877363487025</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B52">
+        <v>0.02049084346896236</v>
+      </c>
+      <c r="C52">
+        <v>0.030272144468209247</v>
+      </c>
+      <c r="D52">
+        <v>0.11537069604240657</v>
+      </c>
+      <c r="E52">
+        <v>0.025371827635688571</v>
+      </c>
+      <c r="F52">
+        <v>0.0009799187026035413</v>
+      </c>
+      <c r="G52">
+        <v>0.80751456968212965</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53">
+        <v>0.011265039082297141</v>
+      </c>
+      <c r="C53">
+        <v>0.025251263200815676</v>
+      </c>
+      <c r="D53">
+        <v>0.075151724280907467</v>
+      </c>
+      <c r="E53">
+        <v>0.024284760228526315</v>
+      </c>
+      <c r="F53">
+        <v>0.00044686762367780487</v>
+      </c>
+      <c r="G53">
+        <v>0.86360034558377552</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B54">
+        <v>0.0090375159692214074</v>
+      </c>
+      <c r="C54">
+        <v>0.015915234072525538</v>
+      </c>
+      <c r="D54">
+        <v>0.018902510490118152</v>
+      </c>
+      <c r="E54">
+        <v>0.022039982488532204</v>
+      </c>
+      <c r="F54">
+        <v>0.0012725529966287768</v>
+      </c>
+      <c r="G54">
+        <v>0.93283220398297395</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B55">
+        <v>0.0079653300917278576</v>
+      </c>
+      <c r="C55">
+        <v>0.01775990709114085</v>
+      </c>
+      <c r="D55">
+        <v>0.045353043720159338</v>
+      </c>
+      <c r="E55">
+        <v>0.053348671963710084</v>
+      </c>
+      <c r="F55">
+        <v>0.0058628608739276578</v>
+      </c>
+      <c r="G55">
+        <v>0.86971018625933416</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B56">
+        <v>0.011797858726746218</v>
+      </c>
+      <c r="C56">
+        <v>0.020524109281779633</v>
+      </c>
+      <c r="D56">
+        <v>0.037256813467870187</v>
+      </c>
+      <c r="E56">
+        <v>0.022699657808554655</v>
+      </c>
+      <c r="F56">
+        <v>0.0021285144595948771</v>
+      </c>
+      <c r="G56">
+        <v>0.90559304625545434</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B57">
+        <v>0.0095572360615153434</v>
+      </c>
+      <c r="C57">
+        <v>0.01947785372283678</v>
+      </c>
+      <c r="D57">
+        <v>0.037748278170313294</v>
+      </c>
+      <c r="E57">
+        <v>0.030874256246451088</v>
+      </c>
+      <c r="F57">
+        <v>0.0012064609366258339</v>
+      </c>
+      <c r="G57">
+        <v>0.90113591486225764</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B58">
+        <v>0.13402192857519324</v>
+      </c>
+      <c r="C58">
+        <v>0.16208081356880785</v>
+      </c>
+      <c r="D58">
+        <v>0.3292237423496851</v>
+      </c>
+      <c r="E58">
+        <v>0.086659852749710692</v>
+      </c>
+      <c r="F58">
+        <v>0.0045825496452322782</v>
+      </c>
+      <c r="G58">
+        <v>0.28343111311137081</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B59">
+        <v>0.055294008872968516</v>
+      </c>
+      <c r="C59">
+        <v>0.089107832400358453</v>
+      </c>
+      <c r="D59">
+        <v>0.19365378157548788</v>
+      </c>
+      <c r="E59">
+        <v>0.046097278589566942</v>
+      </c>
+      <c r="F59">
+        <v>0.0048737578401610538</v>
+      </c>
+      <c r="G59">
+        <v>0.61097334072145715</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B60">
+        <v>0.0037542435006472329</v>
+      </c>
+      <c r="C60">
+        <v>0.015214333585922368</v>
+      </c>
+      <c r="D60">
+        <v>0.040946977783617937</v>
+      </c>
+      <c r="E60">
+        <v>0.0037438302211978986</v>
+      </c>
+      <c r="F60">
+        <v>0.0013312348022745159</v>
+      </c>
+      <c r="G60">
+        <v>0.93500938010634005</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B61">
+        <v>0.001521453640341683</v>
+      </c>
+      <c r="C61">
+        <v>0.014518763604819839</v>
+      </c>
+      <c r="D61">
+        <v>0.01377926377678745</v>
+      </c>
+      <c r="E61">
+        <v>0.01310330389879292</v>
+      </c>
+      <c r="F61">
+        <v>0.0075162419469546162</v>
+      </c>
+      <c r="G61">
+        <v>0.94956097313230348</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B62">
+        <v>0.0037400861762834255</v>
+      </c>
+      <c r="C62">
+        <v>0.0047210171027136033</v>
+      </c>
+      <c r="D62">
+        <v>0.053150779105080925</v>
+      </c>
+      <c r="E62">
+        <v>0.0001129397003456716</v>
+      </c>
+      <c r="F62">
+        <v>0.0003439311733993441</v>
+      </c>
+      <c r="G62">
+        <v>0.93793124674217698</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B63">
+        <v>0.072692362769953875</v>
+      </c>
+      <c r="C63">
+        <v>0.088302473158526171</v>
+      </c>
+      <c r="D63">
+        <v>0.31401167288507781</v>
+      </c>
+      <c r="E63">
+        <v>0.047139174443922661</v>
+      </c>
+      <c r="F63">
+        <v>0.0026376070626359565</v>
+      </c>
+      <c r="G63">
+        <v>0.4752167096798835</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B64">
+        <v>0.0021295340965279772</v>
+      </c>
+      <c r="C64">
+        <v>0.0097172232126675074</v>
+      </c>
+      <c r="D64">
+        <v>0.010556881599697766</v>
+      </c>
+      <c r="E64">
+        <v>0.0018903667184264478</v>
+      </c>
+      <c r="F64">
+        <v>0.0048405865388720989</v>
+      </c>
+      <c r="G64">
+        <v>0.97086540783380826</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B65">
+        <v>0.0038099655359372779</v>
+      </c>
+      <c r="C65">
+        <v>0.01480460109810389</v>
+      </c>
+      <c r="D65">
+        <v>0.015288245806045715</v>
+      </c>
+      <c r="E65">
+        <v>0.00021543072666718716</v>
+      </c>
+      <c r="F65">
+        <v>0.00070916478634880722</v>
+      </c>
+      <c r="G65">
+        <v>0.96517259204689709</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B66">
+        <v>0.001686391613161839</v>
+      </c>
+      <c r="C66">
+        <v>0.0034673593273757326</v>
+      </c>
+      <c r="D66">
+        <v>0.024487416902193963</v>
+      </c>
+      <c r="E66">
+        <v>0.003201495648002939</v>
+      </c>
+      <c r="F66">
+        <v>0.0058447767990608569</v>
+      </c>
+      <c r="G66">
+        <v>0.96131255971020457</v>
+      </c>
+      <c r="H66">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67">
+        <v>0.0039865930937918875</v>
+      </c>
+      <c r="C67">
+        <v>0.039074260837834718</v>
+      </c>
+      <c r="D67">
+        <v>0.011824236540800798</v>
+      </c>
+      <c r="E67">
+        <v>0.0044280059331828691</v>
+      </c>
+      <c r="F67">
+        <v>0.014266956141242735</v>
+      </c>
+      <c r="G67">
+        <v>0.92641994745314704</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B68">
+        <v>0.0041560578553638226</v>
+      </c>
+      <c r="C68">
+        <v>0.011969724371191866</v>
+      </c>
+      <c r="D68">
+        <v>0.0029179891361909506</v>
+      </c>
+      <c r="E68">
+        <v>0.012229250994973895</v>
+      </c>
+      <c r="F68">
+        <v>0.00557253557419178</v>
+      </c>
+      <c r="G68">
+        <v>0.96315444206808776</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B69">
+        <v>7.8815834226629464e-05</v>
+      </c>
+      <c r="C69">
+        <v>0.003540052727284171</v>
+      </c>
+      <c r="D69">
+        <v>0.00070802038852919998</v>
+      </c>
+      <c r="E69">
+        <v>6.8213945642359969e-05</v>
+      </c>
+      <c r="F69">
+        <v>0.044120865823879259</v>
+      </c>
+      <c r="G69">
+        <v>0.95148403128043846</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>